--- a/FFT-Band-Bin calculator-multi.xlsx
+++ b/FFT-Band-Bin calculator-multi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Phil\GitHub\VisualEar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12648996-6389-4B53-927D-6A622CC4E8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60845BC7-1A4A-46FF-BE42-728CC1A1F6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2175" windowWidth="21840" windowHeight="12015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -409,14 +409,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -1056,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1541,7 +1534,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
-        <f t="shared" ref="B20:C83" si="5">B19+1</f>
+        <f t="shared" ref="B20:B83" si="5">B19+1</f>
         <v>2</v>
       </c>
       <c r="C20" s="10">
@@ -4037,7 +4030,7 @@
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="23">
-        <f t="shared" ref="B84:C116" si="74">B83+1</f>
+        <f t="shared" ref="B84:B116" si="74">B83+1</f>
         <v>66</v>
       </c>
       <c r="C84" s="10">
@@ -5324,37 +5317,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B18:D18 E18:F116">
-    <cfRule type="expression" dxfId="0" priority="19">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>$B$18&lt;$C$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B116">
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>$B19&lt;$C$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>$B$18&lt;$C$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C116">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>$B$18&lt;$C$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D116">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>$B$18&lt;$C$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H116">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>$B$18&lt;$C$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:K116">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>$B$18&lt;$C$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8201,47 +8194,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B18:D18 F18">
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$B$18&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:F46">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>$B19&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:F75">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>$B47&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:F81">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>$B76&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:F99">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>$B84&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:F83">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>$B82&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100:F107">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$B100&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:F116">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$B108&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$B$18&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8252,10 +8245,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8282,7 +8275,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -8294,7 +8287,7 @@
       </c>
       <c r="B5" s="2">
         <f>44100/B4</f>
-        <v>44100</v>
+        <v>22050</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -8314,7 +8307,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>1046.5</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -8336,7 +8329,7 @@
       </c>
       <c r="B7" s="14">
         <f>K7</f>
-        <v>16744</v>
+        <v>880</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -8346,7 +8339,7 @@
       </c>
       <c r="K7" s="10">
         <f>K6*B6</f>
-        <v>16744</v>
+        <v>880</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
@@ -8357,7 +8350,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>1024</v>
+        <v>4096</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -8374,8 +8367,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <f>K9</f>
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -8397,7 +8389,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="17">
         <f>1*B8/B5</f>
-        <v>2.3219954648526078E-2</v>
+        <v>0.18575963718820862</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -8413,7 +8405,7 @@
       </c>
       <c r="B12" s="11">
         <f>POWER(B7/B6,1/(B9-1))</f>
-        <v>1.0594630943592953</v>
+        <v>1.0299349291925564</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -8425,7 +8417,7 @@
       </c>
       <c r="B13">
         <f>B5/2</f>
-        <v>22050</v>
+        <v>11025</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -8440,7 +8432,7 @@
       </c>
       <c r="B14">
         <f>B5/B8</f>
-        <v>43.06640625</v>
+        <v>5.38330078125</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -8455,7 +8447,7 @@
       </c>
       <c r="B15">
         <f>B8/2-1</f>
-        <v>511</v>
+        <v>2047</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -8480,7 +8472,7 @@
       </c>
       <c r="G17" s="6">
         <f>G18-(G19-G18)</f>
-        <v>23.534255249023062</v>
+        <v>10.059283123508118</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -8489,23 +8481,23 @@
       </c>
       <c r="C18" s="10">
         <f t="shared" ref="C18:C49" si="0">$B$6*POWER($B$12,B18)</f>
-        <v>1046.5</v>
+        <v>55</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" ref="D18:D81" si="1">C18/$B$14</f>
-        <v>24.299682539682539</v>
+        <v>10.216780045351474</v>
       </c>
       <c r="E18" s="12">
         <f>D18-((F19-E19)/2)</f>
-        <v>23.555735315413283</v>
+        <v>10.061571937621416</v>
       </c>
       <c r="F18" s="13">
         <f>((D19-D18)/2)+D18</f>
-        <v>25.022149697561574</v>
+        <v>10.369699338968232</v>
       </c>
       <c r="G18" s="6">
         <f>F18</f>
-        <v>25.022149697561574</v>
+        <v>10.369699338968232</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -8515,23 +8507,23 @@
       </c>
       <c r="C19" s="10">
         <f t="shared" si="0"/>
-        <v>1108.7281282470026</v>
+        <v>56.646421105590598</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="1"/>
-        <v>25.744616855440604</v>
+        <v>10.522618632584992</v>
       </c>
       <c r="E19" s="12">
         <f>F18</f>
-        <v>25.022149697561574</v>
+        <v>10.369699338968232</v>
       </c>
       <c r="F19" s="13">
         <f>((D20-D19)/2)+D19</f>
-        <v>26.510044146100086</v>
+        <v>10.680115554428346</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" ref="G19:G82" si="2">F19</f>
-        <v>26.510044146100086</v>
+        <v>10.680115554428346</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -8541,23 +8533,23 @@
       </c>
       <c r="C20" s="10">
         <f t="shared" si="0"/>
-        <v>1174.6565335557589</v>
+        <v>58.342127710398188</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="1"/>
-        <v>27.27547143675957</v>
+        <v>10.837612476271699</v>
       </c>
       <c r="E20" s="12">
         <f t="shared" ref="E20:E83" si="4">F19</f>
-        <v>26.510044146100086</v>
+        <v>10.680115554428346</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" ref="F20:F83" si="5">((D21-D20)/2)+D20</f>
-        <v>28.086413402628722</v>
+        <v>10.999824057318479</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="2"/>
-        <v>28.086413402628722</v>
+        <v>10.999824057318479</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -8567,23 +8559,23 @@
       </c>
       <c r="C21" s="10">
         <f t="shared" si="0"/>
-        <v>1244.5052458503478</v>
+        <v>60.088595172352044</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="1"/>
-        <v>28.897355368497873</v>
+        <v>11.162035638365259</v>
       </c>
       <c r="E21" s="12">
         <f t="shared" si="4"/>
-        <v>28.086413402628722</v>
+        <v>10.999824057318479</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="5"/>
-        <v>29.756518453003409</v>
+        <v>11.329103011604886</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="2"/>
-        <v>29.756518453003409</v>
+        <v>11.329103011604886</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -8593,23 +8585,23 @@
       </c>
       <c r="C22" s="10">
         <f t="shared" si="0"/>
-        <v>1318.5073787149847</v>
+        <v>61.887343014116588</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="1"/>
-        <v>30.615681537508941</v>
+        <v>11.496170384844515</v>
       </c>
       <c r="E22" s="12">
         <f t="shared" si="4"/>
-        <v>29.756518453003409</v>
+        <v>11.329103011604886</v>
       </c>
       <c r="F22" s="13">
         <f t="shared" si="5"/>
-        <v>31.525933117578457</v>
+        <v>11.668238908072457</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="2"/>
-        <v>31.525933117578457</v>
+        <v>11.668238908072457</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -8619,23 +8611,23 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="0"/>
-        <v>1396.9099073889411</v>
+        <v>63.739936245159619</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="1"/>
-        <v>32.436184697647974</v>
+        <v>11.840307431300399</v>
       </c>
       <c r="E23" s="12">
         <f t="shared" si="4"/>
-        <v>31.525933117578457</v>
+        <v>11.668238908072457</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="5"/>
-        <v>33.400562653313855</v>
+        <v>12.017526813587438</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="2"/>
-        <v>33.400562653313855</v>
+        <v>12.017526813587438</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -8645,23 +8637,23 @@
       </c>
       <c r="C24" s="10">
         <f t="shared" si="0"/>
-        <v>1479.974493023444</v>
+        <v>65.647986723396528</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="1"/>
-        <v>34.364940608979744</v>
+        <v>12.194746195874476</v>
       </c>
       <c r="E24" s="12">
         <f t="shared" si="4"/>
-        <v>33.400562653313855</v>
+        <v>12.017526813587438</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="5"/>
-        <v>35.386663462021417</v>
+        <v>12.377270627821826</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="2"/>
-        <v>35.386663462021417</v>
+        <v>12.377270627821826</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -8671,23 +8663,23 @@
       </c>
       <c r="C25" s="10">
         <f t="shared" si="0"/>
-        <v>1567.9783559514474</v>
+        <v>67.61315455759528</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="1"/>
-        <v>36.408386315063083</v>
+        <v>12.559795059769174</v>
       </c>
       <c r="E25" s="12">
         <f t="shared" si="4"/>
-        <v>35.386663462021417</v>
+        <v>12.377270627821826</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" si="5"/>
-        <v>37.490863970524217</v>
+        <v>12.747783347662779</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="2"/>
-        <v>37.490863970524217</v>
+        <v>12.747783347662779</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -8697,23 +8689,23 @@
       </c>
       <c r="C26" s="10">
         <f t="shared" si="0"/>
-        <v>1661.2152008847208</v>
+        <v>69.637149551762278</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="1"/>
-        <v>38.573341625985357</v>
+        <v>12.935771635556385</v>
       </c>
       <c r="E26" s="12">
         <f t="shared" si="4"/>
-        <v>37.490863970524217</v>
+        <v>12.747783347662779</v>
       </c>
       <c r="F26" s="13">
         <f t="shared" si="5"/>
-        <v>39.720186752415003</v>
+        <v>13.129387339537114</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="2"/>
-        <v>39.720186752415003</v>
+        <v>13.129387339537114</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -8723,23 +8715,23 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" si="0"/>
-        <v>1759.9961971260248</v>
+        <v>71.721732692765741</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="1"/>
-        <v>40.867031878844656</v>
+        <v>13.323003043517845</v>
       </c>
       <c r="E27" s="12">
         <f t="shared" si="4"/>
-        <v>39.720186752415003</v>
+        <v>13.129387339537114</v>
       </c>
       <c r="F27" s="13">
         <f t="shared" si="5"/>
-        <v>42.08207196524269</v>
+        <v>13.522414619887805</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="2"/>
-        <v>42.08207196524269</v>
+        <v>13.522414619887805</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -8749,23 +8741,23 @@
       </c>
       <c r="C28" s="10">
         <f t="shared" si="0"/>
-        <v>1864.6510170677304</v>
+        <v>73.868717682491138</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="1"/>
-        <v>43.297112051640724</v>
+        <v>13.721826196257764</v>
       </c>
       <c r="E28" s="12">
         <f t="shared" si="4"/>
-        <v>42.08207196524269</v>
+        <v>13.522414619887805</v>
       </c>
       <c r="F28" s="13">
         <f t="shared" si="5"/>
-        <v>44.584402181346576</v>
+        <v>13.927207144046534</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="2"/>
-        <v>44.584402181346576</v>
+        <v>13.927207144046534</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -8775,23 +8767,23 @@
       </c>
       <c r="C29" s="10">
         <f t="shared" si="0"/>
-        <v>1975.5289364427849</v>
+        <v>76.079972515861442</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="1"/>
-        <v>45.871692311052421</v>
+        <v>14.132588091835304</v>
       </c>
       <c r="E29" s="12">
         <f t="shared" si="4"/>
-        <v>44.584402181346576</v>
+        <v>13.927207144046534</v>
       </c>
       <c r="F29" s="13">
         <f t="shared" si="5"/>
-        <v>47.23552869520875</v>
+        <v>14.344117103753632</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="2"/>
-        <v>47.23552869520875</v>
+        <v>14.344117103753632</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -8801,23 +8793,23 @@
       </c>
       <c r="C30" s="10">
         <f t="shared" si="0"/>
-        <v>2093</v>
+        <v>78.357421106095401</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="1"/>
-        <v>48.599365079365079</v>
+        <v>14.555646115671962</v>
       </c>
       <c r="E30" s="12">
         <f t="shared" si="4"/>
-        <v>47.23552869520875</v>
+        <v>14.344117103753632</v>
       </c>
       <c r="F30" s="13">
         <f t="shared" si="5"/>
-        <v>50.044299395123147</v>
+        <v>14.773507233584237</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="2"/>
-        <v>50.044299395123147</v>
+        <v>14.773507233584237</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -8827,23 +8819,23 @@
       </c>
       <c r="C31" s="10">
         <f t="shared" si="0"/>
-        <v>2217.4562564940052</v>
+        <v>80.703044958617696</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="1"/>
-        <v>51.489233710881209</v>
+        <v>14.991368351496511</v>
       </c>
       <c r="E31" s="12">
         <f t="shared" si="4"/>
-        <v>50.044299395123147</v>
+        <v>14.773507233584237</v>
       </c>
       <c r="F31" s="13">
         <f t="shared" si="5"/>
-        <v>53.020088292200185</v>
+        <v>15.2157511265473</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="2"/>
-        <v>53.020088292200185</v>
+        <v>15.2157511265473</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -8853,23 +8845,23 @@
       </c>
       <c r="C32" s="10">
         <f t="shared" si="0"/>
-        <v>2349.3130671115182</v>
+        <v>83.118884895077599</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="1"/>
-        <v>54.550942873519155</v>
+        <v>15.440133901598088</v>
       </c>
       <c r="E32" s="12">
         <f t="shared" si="4"/>
-        <v>53.020088292200185</v>
+        <v>15.2157511265473</v>
       </c>
       <c r="F32" s="13">
         <f t="shared" si="5"/>
-        <v>56.172826805257451</v>
+        <v>15.671233559132052</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="2"/>
-        <v>56.172826805257451</v>
+        <v>15.671233559132052</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -8879,23 +8871,23 @@
       </c>
       <c r="C33" s="10">
         <f t="shared" si="0"/>
-        <v>2489.0104917006956</v>
+        <v>85.607042828975992</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="1"/>
-        <v>57.794710736995746</v>
+        <v>15.902333216666017</v>
       </c>
       <c r="E33" s="12">
         <f t="shared" si="4"/>
-        <v>56.172826805257451</v>
+        <v>15.671233559132052</v>
       </c>
       <c r="F33" s="13">
         <f t="shared" si="5"/>
-        <v>59.513036906006818</v>
+        <v>16.140350826084685</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="2"/>
-        <v>59.513036906006818</v>
+        <v>16.140350826084685</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -8905,23 +8897,23 @@
       </c>
       <c r="C34" s="10">
         <f t="shared" si="0"/>
-        <v>2637.0147574299699</v>
+        <v>88.16968359444553</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="1"/>
-        <v>61.231363075017896</v>
+        <v>16.378368435503351</v>
       </c>
       <c r="E34" s="12">
         <f t="shared" si="4"/>
-        <v>59.513036906006818</v>
+        <v>16.140350826084685</v>
       </c>
       <c r="F34" s="13">
         <f t="shared" si="5"/>
-        <v>63.051866235156929</v>
+        <v>16.623511085206545</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="2"/>
-        <v>63.051866235156929</v>
+        <v>16.623511085206545</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -8931,23 +8923,23 @@
       </c>
       <c r="C35" s="10">
         <f t="shared" si="0"/>
-        <v>2793.8198147778826</v>
+        <v>90.809036829775351</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="1"/>
-        <v>64.872369395295962</v>
+        <v>16.868653734909742</v>
       </c>
       <c r="E35" s="12">
         <f t="shared" si="4"/>
-        <v>63.051866235156929</v>
+        <v>16.623511085206545</v>
       </c>
       <c r="F35" s="13">
         <f t="shared" si="5"/>
-        <v>66.801125306627739</v>
+        <v>17.121134712473882</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="2"/>
-        <v>66.801125306627739</v>
+        <v>17.121134712473882</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -8957,23 +8949,23 @@
       </c>
       <c r="C36" s="10">
         <f t="shared" si="0"/>
-        <v>2959.9489860468884</v>
+        <v>93.527398917318934</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="1"/>
-        <v>68.729881217959502</v>
+        <v>17.373615690038019</v>
       </c>
       <c r="E36" s="12">
         <f t="shared" si="4"/>
-        <v>66.801125306627739</v>
+        <v>17.121134712473882</v>
       </c>
       <c r="F36" s="13">
         <f t="shared" si="5"/>
-        <v>70.773326924042834</v>
+        <v>17.633654667788008</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="2"/>
-        <v>70.773326924042834</v>
+        <v>17.633654667788008</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -8983,23 +8975,23 @@
       </c>
       <c r="C37" s="10">
         <f t="shared" si="0"/>
-        <v>3135.9567119028952</v>
+        <v>96.327134981472852</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="1"/>
-        <v>72.816772630126181</v>
+        <v>17.893693645537997</v>
       </c>
       <c r="E37" s="12">
         <f t="shared" si="4"/>
-        <v>70.773326924042834</v>
+        <v>17.633654667788008</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" si="5"/>
-        <v>74.981727941048447</v>
+        <v>18.161516871674234</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="2"/>
-        <v>74.981727941048447</v>
+        <v>18.161516871674234</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -9009,23 +9001,23 @@
       </c>
       <c r="C38" s="10">
         <f t="shared" si="0"/>
-        <v>3322.4304017694421</v>
+        <v>99.210680946465061</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="1"/>
-        <v>77.146683251970714</v>
+        <v>18.429340097810471</v>
       </c>
       <c r="E38" s="12">
         <f t="shared" si="4"/>
-        <v>74.981727941048447</v>
+        <v>18.161516871674234</v>
       </c>
       <c r="F38" s="13">
         <f t="shared" si="5"/>
-        <v>79.440373504830021</v>
+        <v>18.705180593257218</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="2"/>
-        <v>79.440373504830021</v>
+        <v>18.705180593257218</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -9035,23 +9027,23 @@
       </c>
       <c r="C39" s="10">
         <f t="shared" si="0"/>
-        <v>3519.99239425205</v>
+        <v>102.1805456557428</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="1"/>
-        <v>81.734063757689327</v>
+        <v>18.981021088703969</v>
       </c>
       <c r="E39" s="12">
         <f t="shared" si="4"/>
-        <v>79.440373504830021</v>
+        <v>18.705180593257218</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="5"/>
-        <v>84.164143930485395</v>
+        <v>19.265118849850353</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="2"/>
-        <v>84.164143930485395</v>
+        <v>19.265118849850353</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -9061,23 +9053,23 @@
       </c>
       <c r="C40" s="10">
         <f t="shared" si="0"/>
-        <v>3729.3020341354613</v>
+        <v>105.23931305480423</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="1"/>
-        <v>86.594224103281462</v>
+        <v>19.549216610996741</v>
       </c>
       <c r="E40" s="12">
         <f t="shared" si="4"/>
-        <v>84.164143930485395</v>
+        <v>19.265118849850353</v>
       </c>
       <c r="F40" s="13">
         <f t="shared" si="5"/>
-        <v>89.168804362693152</v>
+        <v>19.841818818506809</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="2"/>
-        <v>89.168804362693152</v>
+        <v>19.841818818506809</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -9087,23 +9079,23 @@
       </c>
       <c r="C41" s="10">
         <f t="shared" si="0"/>
-        <v>3951.0578728855703</v>
+        <v>108.38964443937307</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="1"/>
-        <v>91.743384622104855</v>
+        <v>20.134421026016874</v>
       </c>
       <c r="E41" s="12">
         <f t="shared" si="4"/>
-        <v>89.168804362693152</v>
+        <v>19.841818818506809</v>
       </c>
       <c r="F41" s="13">
         <f t="shared" si="5"/>
-        <v>94.471057390417513</v>
+        <v>20.435782259890342</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="2"/>
-        <v>94.471057390417513</v>
+        <v>20.435782259890342</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -9113,23 +9105,23 @@
       </c>
       <c r="C42" s="10">
         <f t="shared" si="0"/>
-        <v>4186.0000000000009</v>
+        <v>111.63428077087207</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="1"/>
-        <v>97.198730158730186</v>
+        <v>20.73714349376381</v>
       </c>
       <c r="E42" s="12">
         <f t="shared" si="4"/>
-        <v>94.471057390417513</v>
+        <v>20.435782259890342</v>
       </c>
       <c r="F42" s="13">
         <f t="shared" si="5"/>
-        <v>100.08859879024631</v>
+        <v>21.047525954834661</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="2"/>
-        <v>100.08859879024631</v>
+        <v>21.047525954834661</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -9139,23 +9131,23 @@
       </c>
       <c r="C43" s="10">
         <f t="shared" si="0"/>
-        <v>4434.9125129880113</v>
+        <v>114.97604506121007</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="1"/>
-        <v>102.97846742176243</v>
+        <v>21.357908415905509</v>
       </c>
       <c r="E43" s="12">
         <f t="shared" si="4"/>
-        <v>100.08859879024631</v>
+        <v>21.047525954834661</v>
       </c>
       <c r="F43" s="13">
         <f t="shared" si="5"/>
-        <v>106.04017658440037</v>
+        <v>21.67758215397113</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="2"/>
-        <v>106.04017658440037</v>
+        <v>21.67758215397113</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -9165,23 +9157,23 @@
       </c>
       <c r="C44" s="10">
         <f t="shared" si="0"/>
-        <v>4698.6261342230364</v>
+        <v>118.41784482895758</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="1"/>
-        <v>109.10188574703831</v>
+        <v>21.997255892036748</v>
       </c>
       <c r="E44" s="12">
         <f t="shared" si="4"/>
-        <v>106.04017658440037</v>
+        <v>21.67758215397113</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="5"/>
-        <v>112.34565361051492</v>
+        <v>22.326499040816081</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="2"/>
-        <v>112.34565361051492</v>
+        <v>22.326499040816081</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -9191,23 +9183,23 @@
       </c>
       <c r="C45" s="10">
         <f t="shared" si="0"/>
-        <v>4978.0209834013931</v>
+        <v>121.96267462904756</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="1"/>
-        <v>115.58942147399154</v>
+        <v>22.655742189595411</v>
       </c>
       <c r="E45" s="12">
         <f t="shared" si="4"/>
-        <v>112.34565361051492</v>
+        <v>22.326499040816081</v>
       </c>
       <c r="F45" s="13">
         <f t="shared" si="5"/>
-        <v>119.02607381201366</v>
+        <v>22.994841208720587</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="2"/>
-        <v>119.02607381201366</v>
+        <v>22.994841208720587</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -9217,23 +9209,23 @@
       </c>
       <c r="C46" s="10">
         <f t="shared" si="0"/>
-        <v>5274.0295148599398</v>
+        <v>125.61361865820291</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="1"/>
-        <v>122.46272615003579</v>
+        <v>23.333940227845765</v>
       </c>
       <c r="E46" s="12">
         <f t="shared" si="4"/>
-        <v>119.02607381201366</v>
+        <v>22.994841208720587</v>
       </c>
       <c r="F46" s="13">
         <f t="shared" si="5"/>
-        <v>126.10373247031386</v>
+        <v>23.683190152097719</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="2"/>
-        <v>126.10373247031386</v>
+        <v>23.683190152097719</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -9243,23 +9235,23 @@
       </c>
       <c r="C47" s="10">
         <f t="shared" si="0"/>
-        <v>5587.6396295557652</v>
+        <v>129.373853438357</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="1"/>
-        <v>129.74473879059192</v>
+        <v>24.032440076349673</v>
       </c>
       <c r="E47" s="12">
         <f t="shared" si="4"/>
-        <v>126.10373247031386</v>
+        <v>23.683190152097719</v>
       </c>
       <c r="F47" s="13">
         <f t="shared" si="5"/>
-        <v>133.60225061325548</v>
+        <v>24.392144772354612</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="2"/>
-        <v>133.60225061325548</v>
+        <v>24.392144772354612</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -9269,23 +9261,23 @@
       </c>
       <c r="C48" s="10">
         <f t="shared" si="0"/>
-        <v>5919.8979720937778</v>
+        <v>133.24665058040236</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="1"/>
-        <v>137.459762435919</v>
+        <v>24.751849468359548</v>
       </c>
       <c r="E48" s="12">
         <f t="shared" si="4"/>
-        <v>133.60225061325548</v>
+        <v>24.392144772354612</v>
       </c>
       <c r="F48" s="13">
         <f t="shared" si="5"/>
-        <v>141.54665384808567</v>
+        <v>25.122321898969631</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="2"/>
-        <v>141.54665384808567</v>
+        <v>25.122321898969631</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -9295,23 +9287,23 @@
       </c>
       <c r="C49" s="10">
         <f t="shared" si="0"/>
-        <v>6271.9134238057904</v>
+        <v>137.23537963067204</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="1"/>
-        <v>145.63354526025236</v>
+        <v>25.492794329579713</v>
       </c>
       <c r="E49" s="12">
         <f t="shared" si="4"/>
-        <v>141.54665384808567</v>
+        <v>25.122321898969631</v>
       </c>
       <c r="F49" s="13">
         <f t="shared" si="5"/>
-        <v>149.96345588209692</v>
+        <v>25.874356826167897</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="2"/>
-        <v>149.96345588209692</v>
+        <v>25.874356826167897</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -9321,23 +9313,23 @@
       </c>
       <c r="C50" s="10">
         <f t="shared" ref="C50:C81" si="6">$B$6*POWER($B$12,B50)</f>
-        <v>6644.8608035388852</v>
+        <v>141.34351100262978</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="1"/>
-        <v>154.29336650394146</v>
+        <v>26.255919322756082</v>
       </c>
       <c r="E50" s="12">
         <f t="shared" si="4"/>
-        <v>149.96345588209692</v>
+        <v>25.874356826167897</v>
       </c>
       <c r="F50" s="13">
         <f t="shared" si="5"/>
-        <v>158.88074700966007</v>
+        <v>26.648903865662167</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="2"/>
-        <v>158.88074700966007</v>
+        <v>26.648903865662167</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -9347,23 +9339,23 @@
       </c>
       <c r="C51" s="10">
         <f t="shared" si="6"/>
-        <v>7039.9847885041008</v>
+        <v>145.57461899632079</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="1"/>
-        <v>163.46812751537865</v>
+        <v>27.041888408568251</v>
       </c>
       <c r="E51" s="12">
         <f t="shared" si="4"/>
-        <v>158.88074700966007</v>
+        <v>26.648903865662167</v>
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>168.32828786097082</v>
+        <v>27.446636915940005</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="2"/>
-        <v>168.32828786097082</v>
+        <v>27.446636915940005</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -9373,23 +9365,23 @@
       </c>
       <c r="C52" s="10">
         <f t="shared" si="6"/>
-        <v>7458.6040682709236</v>
+        <v>149.93238490820903</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="1"/>
-        <v>173.18844820656295</v>
+        <v>27.851385423311754</v>
       </c>
       <c r="E52" s="12">
         <f t="shared" si="4"/>
-        <v>168.32828786097082</v>
+        <v>27.446636915940005</v>
       </c>
       <c r="F52" s="13">
         <f t="shared" si="5"/>
-        <v>178.33760872538636</v>
+        <v>28.268250048592471</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="2"/>
-        <v>178.33760872538636</v>
+        <v>28.268250048592471</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -9399,23 +9391,23 @@
       </c>
       <c r="C53" s="10">
         <f t="shared" si="6"/>
-        <v>7902.1157457711415</v>
+        <v>154.42060023410738</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="1"/>
-        <v>183.48676924420974</v>
+        <v>28.685114673873191</v>
       </c>
       <c r="E53" s="12">
         <f t="shared" si="4"/>
-        <v>178.33760872538636</v>
+        <v>28.268250048592471</v>
       </c>
       <c r="F53" s="13">
         <f t="shared" si="5"/>
-        <v>188.94211478083508</v>
+        <v>29.114458112194569</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="2"/>
-        <v>188.94211478083508</v>
+        <v>29.114458112194569</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="16"/>
@@ -9427,23 +9419,23 @@
       </c>
       <c r="C54" s="10">
         <f t="shared" si="6"/>
-        <v>8372.0000000000036</v>
+        <v>159.04316996798747</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="1"/>
-        <v>194.3974603174604</v>
+        <v>29.543801550515948</v>
       </c>
       <c r="E54" s="12">
         <f t="shared" si="4"/>
-        <v>188.94211478083508</v>
+        <v>29.114458112194569</v>
       </c>
       <c r="F54" s="13">
         <f t="shared" si="5"/>
-        <v>200.17719758049265</v>
+        <v>29.985997354262764</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="2"/>
-        <v>200.17719758049265</v>
+        <v>29.985997354262764</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="16"/>
@@ -9455,23 +9447,23 @@
       </c>
       <c r="C55" s="10">
         <f t="shared" si="6"/>
-        <v>8869.8250259760225</v>
+        <v>163.80411599953888</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="1"/>
-        <v>205.95693484352486</v>
+        <v>30.428193158009581</v>
       </c>
       <c r="E55" s="12">
         <f t="shared" si="4"/>
-        <v>200.17719758049265</v>
+        <v>29.985997354262764</v>
       </c>
       <c r="F55" s="13">
         <f t="shared" si="5"/>
-        <v>212.08035316880074</v>
+        <v>30.883626061830803</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="2"/>
-        <v>212.08035316880074</v>
+        <v>30.883626061830803</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="16"/>
@@ -9483,23 +9475,23 @@
       </c>
       <c r="C56" s="10">
         <f t="shared" si="6"/>
-        <v>9397.2522684460746</v>
+        <v>168.70758061343437</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="1"/>
-        <v>218.20377149407665</v>
+        <v>31.339058965652026</v>
       </c>
       <c r="E56" s="12">
         <f t="shared" si="4"/>
-        <v>212.08035316880074</v>
+        <v>30.883626061830803</v>
       </c>
       <c r="F56" s="13">
         <f t="shared" si="5"/>
-        <v>224.69130722102986</v>
+        <v>31.808125221201095</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="2"/>
-        <v>224.69130722102986</v>
+        <v>31.808125221201095</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="16"/>
@@ -9511,23 +9503,23 @@
       </c>
       <c r="C57" s="10">
         <f t="shared" si="6"/>
-        <v>9956.0419668027862</v>
+        <v>173.75783009334504</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="1"/>
-        <v>231.17884294798307</v>
+        <v>32.277191476750168</v>
       </c>
       <c r="E57" s="12">
         <f t="shared" si="4"/>
-        <v>224.69130722102986</v>
+        <v>31.808125221201095</v>
       </c>
       <c r="F57" s="13">
         <f t="shared" si="5"/>
-        <v>238.05214762402733</v>
+        <v>32.760299197445718</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="2"/>
-        <v>238.05214762402733</v>
+        <v>32.760299197445718</v>
       </c>
       <c r="H57" s="10"/>
       <c r="I57" s="16"/>
@@ -9539,23 +9531,23 @@
       </c>
       <c r="C58" s="10">
         <f t="shared" si="6"/>
-        <v>10548.059029719881</v>
+        <v>178.95925843384157</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="1"/>
-        <v>244.92545230007161</v>
+        <v>33.243406918141275</v>
       </c>
       <c r="E58" s="12">
         <f t="shared" si="4"/>
-        <v>238.05214762402733</v>
+        <v>32.760299197445718</v>
       </c>
       <c r="F58" s="13">
         <f t="shared" si="5"/>
-        <v>252.20746494062774</v>
+        <v>33.740976434248225</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="2"/>
-        <v>252.20746494062774</v>
+        <v>33.740976434248225</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="16"/>
@@ -9567,23 +9559,23 @@
       </c>
       <c r="C59" s="10">
         <f t="shared" si="6"/>
-        <v>11175.279259111534</v>
+        <v>184.316391163411</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="1"/>
-        <v>259.48947758118391</v>
+        <v>34.238545950355167</v>
       </c>
       <c r="E59" s="12">
         <f t="shared" si="4"/>
-        <v>252.20746494062774</v>
+        <v>33.740976434248225</v>
       </c>
       <c r="F59" s="13">
         <f t="shared" si="5"/>
-        <v>267.20450122651096</v>
+        <v>34.751010174695153</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="2"/>
-        <v>267.20450122651096</v>
+        <v>34.751010174695153</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="16"/>
@@ -9595,23 +9587,23 @@
       </c>
       <c r="C60" s="10">
         <f t="shared" si="6"/>
-        <v>11839.795944187556</v>
+        <v>189.83388928191522</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="1"/>
-        <v>274.91952487183801</v>
+        <v>35.263474399035132</v>
       </c>
       <c r="E60" s="12">
         <f t="shared" si="4"/>
-        <v>267.20450122651096</v>
+        <v>34.751010174695153</v>
       </c>
       <c r="F60" s="13">
         <f t="shared" si="5"/>
-        <v>283.09330769617145</v>
+        <v>35.791279203644457</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="2"/>
-        <v>283.09330769617145</v>
+        <v>35.791279203644457</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="16"/>
@@ -9623,23 +9615,23 @@
       </c>
       <c r="C61" s="10">
         <f t="shared" si="6"/>
-        <v>12543.826847611585</v>
+        <v>195.51655331591695</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="1"/>
-        <v>291.26709052050484</v>
+        <v>36.319084008253782</v>
       </c>
       <c r="E61" s="12">
         <f t="shared" si="4"/>
-        <v>283.09330769617145</v>
+        <v>35.791279203644457</v>
       </c>
       <c r="F61" s="13">
         <f t="shared" si="5"/>
-        <v>299.92691176419385</v>
+        <v>36.862688612316575</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="2"/>
-        <v>299.92691176419385</v>
+        <v>36.862688612316575</v>
       </c>
       <c r="H61" s="10"/>
       <c r="I61" s="16"/>
@@ -9651,23 +9643,23 @@
       </c>
       <c r="C62" s="10">
         <f t="shared" si="6"/>
-        <v>13289.72160707777</v>
+        <v>201.36932749540162</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="1"/>
-        <v>308.58673300788291</v>
+        <v>37.406293216379368</v>
       </c>
       <c r="E62" s="12">
         <f t="shared" si="4"/>
-        <v>299.92691176419385</v>
+        <v>36.862688612316575</v>
       </c>
       <c r="F62" s="13">
         <f t="shared" si="5"/>
-        <v>317.76149401932014</v>
+        <v>37.966170585773533</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="2"/>
-        <v>317.76149401932014</v>
+        <v>37.966170585773533</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="16"/>
@@ -9679,23 +9671,23 @@
       </c>
       <c r="C63" s="10">
         <f t="shared" si="6"/>
-        <v>14079.969577008202</v>
+        <v>207.39730405552922</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="1"/>
-        <v>326.93625503075731</v>
+        <v>38.526047955167698</v>
       </c>
       <c r="E63" s="12">
         <f t="shared" si="4"/>
-        <v>317.76149401932014</v>
+        <v>37.966170585773533</v>
       </c>
       <c r="F63" s="13">
         <f t="shared" si="5"/>
-        <v>336.65657572194164</v>
+        <v>39.102685213971178</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="2"/>
-        <v>336.65657572194164</v>
+        <v>39.102685213971178</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="16"/>
@@ -9707,23 +9699,23 @@
       </c>
       <c r="C64" s="10">
         <f t="shared" si="6"/>
-        <v>14917.208136541851</v>
+        <v>213.6057276671585</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="1"/>
-        <v>346.37689641312596</v>
+        <v>39.679322472774658</v>
       </c>
       <c r="E64" s="12">
         <f t="shared" si="4"/>
-        <v>336.65657572194164</v>
+        <v>39.102685213971178</v>
       </c>
       <c r="F64" s="13">
         <f t="shared" si="5"/>
-        <v>356.67521745077272</v>
+        <v>40.273221327090226</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="2"/>
-        <v>356.67521745077272</v>
+        <v>40.273221327090226</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="16"/>
@@ -9735,23 +9727,23 @@
       </c>
       <c r="C65" s="10">
         <f t="shared" si="6"/>
-        <v>15804.231491542283</v>
+        <v>219.9999999999994</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="1"/>
-        <v>366.97353848841948</v>
+        <v>40.867120181405788</v>
       </c>
       <c r="E65" s="12">
         <f t="shared" si="4"/>
-        <v>356.67521745077272</v>
+        <v>40.273221327090226</v>
       </c>
       <c r="F65" s="13">
         <f t="shared" si="5"/>
-        <v>377.88422956167017</v>
+        <v>41.478797355872821</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="2"/>
-        <v>377.88422956167017</v>
+        <v>41.478797355872821</v>
       </c>
       <c r="H65" s="10"/>
       <c r="I65" s="16"/>
@@ -9763,23 +9755,23 @@
       </c>
       <c r="C66" s="10">
         <f t="shared" si="6"/>
-        <v>16744.000000000007</v>
+        <v>226.58568442236177</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="1"/>
-        <v>388.7949206349208</v>
+        <v>42.090474530339854</v>
       </c>
       <c r="E66" s="12">
         <f t="shared" si="4"/>
-        <v>377.88422956167017</v>
+        <v>41.478797355872821</v>
       </c>
       <c r="F66" s="13">
         <f t="shared" si="5"/>
-        <v>400.35439516098529</v>
+        <v>42.720462217713262</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="2"/>
-        <v>400.35439516098529</v>
+        <v>42.720462217713262</v>
       </c>
       <c r="H66" s="10"/>
       <c r="I66" s="16"/>
@@ -9791,23 +9783,23 @@
       </c>
       <c r="C67" s="10">
         <f t="shared" si="6"/>
-        <v>17739.650051952049</v>
+        <v>233.36851084159207</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" si="1"/>
-        <v>411.91386968704984</v>
+        <v>43.35044990508667</v>
       </c>
       <c r="E67" s="12">
         <f t="shared" si="4"/>
-        <v>400.35439516098529</v>
+        <v>42.720462217713262</v>
       </c>
       <c r="F67" s="13">
         <f t="shared" si="5"/>
-        <v>424.1607063376016</v>
+        <v>43.999296229273796</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" si="2"/>
-        <v>424.1607063376016</v>
+        <v>43.999296229273796</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -9817,23 +9809,23 @@
       </c>
       <c r="C68" s="10">
         <f t="shared" si="6"/>
-        <v>18794.504536892153</v>
+        <v>240.35438068940749</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="1"/>
-        <v>436.40754298815341</v>
+        <v>44.648142553460914</v>
       </c>
       <c r="E68" s="12">
         <f t="shared" si="4"/>
-        <v>424.1607063376016</v>
+        <v>43.999296229273796</v>
       </c>
       <c r="F68" s="13">
         <f t="shared" si="5"/>
-        <v>449.38261444205978</v>
+        <v>45.316412046419423</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="2"/>
-        <v>449.38261444205978</v>
+        <v>45.316412046419423</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -9843,23 +9835,23 @@
       </c>
       <c r="C69" s="10">
         <f t="shared" si="6"/>
-        <v>19912.083933605576</v>
+        <v>247.54937205646567</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="1"/>
-        <v>462.3576858959662</v>
+        <v>45.984681539377931</v>
       </c>
       <c r="E69" s="12">
         <f t="shared" si="4"/>
-        <v>449.38261444205978</v>
+        <v>45.316412046419423</v>
       </c>
       <c r="F69" s="13">
         <f t="shared" si="5"/>
-        <v>476.10429524805477</v>
+        <v>46.6729556322897</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="2"/>
-        <v>476.10429524805477</v>
+        <v>46.6729556322897</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -9869,23 +9861,23 @@
       </c>
       <c r="C70" s="10">
         <f t="shared" si="6"/>
-        <v>21096.118059439767</v>
+        <v>254.95974498063774</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="1"/>
-        <v>489.85090460014334</v>
+        <v>47.361229725201461</v>
       </c>
       <c r="E70" s="12">
         <f t="shared" si="4"/>
-        <v>476.10429524805477</v>
+        <v>46.6729556322897</v>
       </c>
       <c r="F70" s="13">
         <f t="shared" si="5"/>
-        <v>504.4149298812556</v>
+        <v>48.070107254349622</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="2"/>
-        <v>504.4149298812556</v>
+        <v>48.070107254349622</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -9895,23 +9887,23 @@
       </c>
       <c r="C71" s="10">
         <f t="shared" si="6"/>
-        <v>22350.558518223068</v>
+        <v>262.59194689358543</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="1"/>
-        <v>518.97895516236781</v>
+        <v>48.778984783497776</v>
       </c>
       <c r="E71" s="12">
         <f t="shared" si="4"/>
-        <v>504.4149298812556</v>
+        <v>48.070107254349622</v>
       </c>
       <c r="F71" s="13">
         <f t="shared" si="5"/>
-        <v>534.40900245302191</v>
+        <v>49.509082511287161</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="2"/>
-        <v>534.40900245302191</v>
+        <v>49.509082511287161</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -9921,23 +9913,23 @@
       </c>
       <c r="C72" s="10">
         <f t="shared" si="6"/>
-        <v>23679.591888375115</v>
+        <v>270.45261823038038</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="1"/>
-        <v>549.83904974367613</v>
+        <v>50.239180239076553</v>
       </c>
       <c r="E72" s="12">
         <f t="shared" si="4"/>
-        <v>534.40900245302191</v>
+        <v>49.509082511287161</v>
       </c>
       <c r="F72" s="13">
         <f t="shared" si="5"/>
-        <v>566.1866153923429</v>
+        <v>50.991133390650973</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="2"/>
-        <v>566.1866153923429</v>
+        <v>50.991133390650973</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -9947,23 +9939,23 @@
       </c>
       <c r="C73" s="10">
         <f t="shared" si="6"/>
-        <v>25087.653695223173</v>
+        <v>278.54859820704831</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="1"/>
-        <v>582.53418104100967</v>
+        <v>51.743086542225392</v>
       </c>
       <c r="E73" s="12">
         <f t="shared" si="4"/>
-        <v>566.1866153923429</v>
+        <v>50.991133390650973</v>
       </c>
       <c r="F73" s="13">
         <f t="shared" si="5"/>
-        <v>599.85382352838792</v>
+        <v>52.517549358148315</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="2"/>
-        <v>599.85382352838792</v>
+        <v>52.517549358148315</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -9973,23 +9965,23 @@
       </c>
       <c r="C74" s="10">
         <f t="shared" si="6"/>
-        <v>26579.443214155548</v>
+        <v>286.88693077106217</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="1"/>
-        <v>617.17346601576605</v>
+        <v>53.292012174071232</v>
       </c>
       <c r="E74" s="12">
         <f t="shared" si="4"/>
-        <v>599.85382352838792</v>
+        <v>52.517549358148315</v>
       </c>
       <c r="F74" s="13">
         <f t="shared" si="5"/>
-        <v>635.52298803864051</v>
+        <v>54.089658479551062</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="2"/>
-        <v>635.52298803864051</v>
+        <v>54.089658479551062</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -9999,23 +9991,23 @@
       </c>
       <c r="C75" s="10">
         <f t="shared" si="6"/>
-        <v>28159.939154016411</v>
+        <v>295.4748707299637</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="1"/>
-        <v>653.87251006151484</v>
+        <v>54.887304785030899</v>
       </c>
       <c r="E75" s="12">
         <f t="shared" si="4"/>
-        <v>635.52298803864051</v>
+        <v>54.089658479551062</v>
       </c>
       <c r="F75" s="13">
         <f t="shared" si="5"/>
-        <v>673.31315144388338</v>
+        <v>55.708828576185979</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="2"/>
-        <v>673.31315144388338</v>
+        <v>55.708828576185979</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -10025,23 +10017,23 @@
       </c>
       <c r="C76" s="10">
         <f t="shared" si="6"/>
-        <v>29834.416273083702</v>
+        <v>304.31989006344492</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="1"/>
-        <v>692.75379282625192</v>
+        <v>56.53035236734106</v>
       </c>
       <c r="E76" s="12">
         <f t="shared" si="4"/>
-        <v>673.31315144388338</v>
+        <v>55.708828576185979</v>
       </c>
       <c r="F76" s="13">
         <f t="shared" si="5"/>
-        <v>713.35043490154567</v>
+        <v>57.376468415014372</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="2"/>
-        <v>713.35043490154567</v>
+        <v>57.376468415014372</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -10051,23 +10043,23 @@
       </c>
       <c r="C77" s="10">
         <f t="shared" si="6"/>
-        <v>31608.462983084581</v>
+        <v>313.4296844243807</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="1"/>
-        <v>733.9470769768393</v>
+        <v>58.222584462687678</v>
       </c>
       <c r="E77" s="12">
         <f t="shared" si="4"/>
-        <v>713.35043490154567</v>
+        <v>57.376468415014372</v>
       </c>
       <c r="F77" s="13">
         <f t="shared" si="5"/>
-        <v>755.76845912334045</v>
+        <v>59.094028934336777</v>
       </c>
       <c r="G77" s="6">
         <f t="shared" si="2"/>
-        <v>755.76845912334045</v>
+        <v>59.094028934336777</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -10077,23 +10069,23 @@
       </c>
       <c r="C78" s="10">
         <f t="shared" si="6"/>
-        <v>33488.000000000015</v>
+        <v>322.81217983446987</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="1"/>
-        <v>777.5898412698416</v>
+        <v>59.965473405985875</v>
       </c>
       <c r="E78" s="12">
         <f t="shared" si="4"/>
-        <v>755.76845912334045</v>
+        <v>59.094028934336777</v>
       </c>
       <c r="F78" s="13">
         <f t="shared" si="5"/>
-        <v>800.70879032197058</v>
+        <v>60.863004506189036</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" si="2"/>
-        <v>800.70879032197058</v>
+        <v>60.863004506189036</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -10103,23 +10095,23 @@
       </c>
       <c r="C79" s="10">
         <f t="shared" si="6"/>
-        <v>35479.300103904097</v>
+        <v>332.47553958030954</v>
       </c>
       <c r="D79" s="6">
         <f t="shared" si="1"/>
-        <v>823.82773937409968</v>
+        <v>61.760535606392196</v>
       </c>
       <c r="E79" s="12">
         <f t="shared" si="4"/>
-        <v>800.70879032197058</v>
+        <v>60.863004506189036</v>
       </c>
       <c r="F79" s="13">
         <f t="shared" si="5"/>
-        <v>848.32141267520331</v>
+        <v>62.684934236528036</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="2"/>
-        <v>848.32141267520331</v>
+        <v>62.684934236528036</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -10129,23 +10121,23 @@
       </c>
       <c r="C80" s="10">
         <f t="shared" si="6"/>
-        <v>37589.009073784313</v>
+        <v>342.428171315903</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="1"/>
-        <v>872.81508597630693</v>
+        <v>63.609332866663884</v>
       </c>
       <c r="E80" s="12">
         <f t="shared" si="4"/>
-        <v>848.32141267520331</v>
+        <v>62.684934236528036</v>
       </c>
       <c r="F80" s="13">
         <f t="shared" si="5"/>
-        <v>898.76522888411967</v>
+        <v>64.561403304338555</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" si="2"/>
-        <v>898.76522888411967</v>
+        <v>64.561403304338555</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -10155,23 +10147,23 @@
       </c>
       <c r="C81" s="10">
         <f t="shared" si="6"/>
-        <v>39824.167867211152</v>
+        <v>352.67873437778121</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="1"/>
-        <v>924.7153717919324</v>
+        <v>65.513473742013232</v>
       </c>
       <c r="E81" s="12">
         <f t="shared" si="4"/>
-        <v>898.76522888411967</v>
+        <v>64.561403304338555</v>
       </c>
       <c r="F81" s="13">
         <f t="shared" si="5"/>
-        <v>952.20859049610954</v>
+        <v>66.494044340826008</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="2"/>
-        <v>952.20859049610954</v>
+        <v>66.494044340826008</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
@@ -10181,23 +10173,23 @@
       </c>
       <c r="C82" s="10">
         <f t="shared" ref="C82:C113" si="7">$B$6*POWER($B$12,B82)</f>
-        <v>42192.23611887954</v>
+        <v>363.23614731910044</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" ref="D82:D116" si="8">C82/$B$14</f>
-        <v>979.70180920028679</v>
+        <v>67.474614939638798</v>
       </c>
       <c r="E82" s="12">
         <f t="shared" si="4"/>
-        <v>952.20859049610954</v>
+        <v>66.494044340826008</v>
       </c>
       <c r="F82" s="13">
         <f t="shared" si="5"/>
-        <v>1008.8298597625114</v>
+        <v>68.484538849895344</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="2"/>
-        <v>1008.8298597625114</v>
+        <v>68.484538849895344</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
@@ -10207,49 +10199,49 @@
       </c>
       <c r="C83" s="10">
         <f t="shared" si="7"/>
-        <v>44701.11703644615</v>
+        <v>374.10959566927471</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="8"/>
-        <v>1037.9579103247361</v>
+        <v>69.49446276015189</v>
       </c>
       <c r="E83" s="12">
         <f t="shared" si="4"/>
-        <v>1008.8298597625114</v>
+        <v>68.484538849895344</v>
       </c>
       <c r="F83" s="13">
         <f t="shared" si="5"/>
-        <v>1068.8180049060443</v>
+        <v>70.534618671151833</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" ref="G83:G116" si="9">F83</f>
-        <v>1068.8180049060443</v>
+        <v>70.534618671151833</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="5">
-        <f t="shared" ref="B84:B116" si="10">B83+1</f>
+        <f t="shared" ref="B84:B147" si="10">B83+1</f>
         <v>66</v>
       </c>
       <c r="C84" s="10">
         <f t="shared" si="7"/>
-        <v>47359.183776750237</v>
+        <v>385.30853992589033</v>
       </c>
       <c r="D84" s="6">
         <f t="shared" si="8"/>
-        <v>1099.6780994873525</v>
+        <v>71.574774582151775</v>
       </c>
       <c r="E84" s="12">
         <f t="shared" ref="E84:E116" si="11">F83</f>
-        <v>1068.8180049060443</v>
+        <v>70.534618671151833</v>
       </c>
       <c r="F84" s="13">
         <f t="shared" ref="F84:F116" si="12">((D85-D84)/2)+D84</f>
-        <v>1132.373230784686</v>
+        <v>72.646067486696722</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="9"/>
-        <v>1132.373230784686</v>
+        <v>72.646067486696722</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
@@ -10259,23 +10251,23 @@
       </c>
       <c r="C85" s="10">
         <f t="shared" si="7"/>
-        <v>50175.307390446353</v>
+        <v>396.84272378585916</v>
       </c>
       <c r="D85" s="6">
         <f t="shared" si="8"/>
-        <v>1165.0683620820196</v>
+        <v>73.717360391241684</v>
       </c>
       <c r="E85" s="12">
         <f t="shared" si="11"/>
-        <v>1132.373230784686</v>
+        <v>72.646067486696722</v>
       </c>
       <c r="F85" s="13">
         <f t="shared" si="12"/>
-        <v>1199.7076470567758</v>
+        <v>74.820722373028673</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="9"/>
-        <v>1199.7076470567758</v>
+        <v>74.820722373028673</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
@@ -10285,23 +10277,23 @@
       </c>
       <c r="C86" s="10">
         <f t="shared" si="7"/>
-        <v>53158.886428311103</v>
+        <v>408.72218262297008</v>
       </c>
       <c r="D86" s="6">
         <f t="shared" si="8"/>
-        <v>1234.3469320315321</v>
+        <v>75.924084354815662</v>
       </c>
       <c r="E86" s="12">
         <f t="shared" si="11"/>
-        <v>1199.7076470567758</v>
+        <v>74.820722373028673</v>
       </c>
       <c r="F86" s="13">
         <f t="shared" si="12"/>
-        <v>1271.045976077281</v>
+        <v>77.060475399401213</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="9"/>
-        <v>1271.045976077281</v>
+        <v>77.060475399401213</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
@@ -10311,23 +10303,23 @@
       </c>
       <c r="C87" s="10">
         <f t="shared" si="7"/>
-        <v>56319.878308032828</v>
+        <v>420.95725221921583</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="8"/>
-        <v>1307.7450201230299</v>
+        <v>78.196866443986764</v>
       </c>
       <c r="E87" s="12">
         <f t="shared" si="11"/>
-        <v>1271.045976077281</v>
+        <v>77.060475399401213</v>
       </c>
       <c r="F87" s="13">
         <f t="shared" si="12"/>
-        <v>1346.626302887767</v>
+        <v>79.367275274027023</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="9"/>
-        <v>1346.626302887767</v>
+        <v>79.367275274027023</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
@@ -10337,23 +10329,23 @@
       </c>
       <c r="C88" s="10">
         <f t="shared" si="7"/>
-        <v>59668.832546167418</v>
+        <v>433.55857775749109</v>
       </c>
       <c r="D88" s="6">
         <f t="shared" si="8"/>
-        <v>1385.5075856525043</v>
+        <v>80.537684104067282</v>
       </c>
       <c r="E88" s="12">
         <f t="shared" si="11"/>
-        <v>1346.626302887767</v>
+        <v>79.367275274027023</v>
       </c>
       <c r="F88" s="13">
         <f t="shared" si="12"/>
-        <v>1426.7008698030913</v>
+        <v>81.74312903956114</v>
       </c>
       <c r="G88" s="6">
         <f t="shared" si="9"/>
-        <v>1426.7008698030913</v>
+        <v>81.74312903956114</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
@@ -10363,23 +10355,23 @@
       </c>
       <c r="C89" s="10">
         <f t="shared" si="7"/>
-        <v>63216.925966169161</v>
+        <v>446.53712308348702</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="8"/>
-        <v>1467.8941539536786</v>
+        <v>82.948573975054998</v>
       </c>
       <c r="E89" s="12">
         <f t="shared" si="11"/>
-        <v>1426.7008698030913</v>
+        <v>81.74312903956114</v>
       </c>
       <c r="F89" s="13">
         <f t="shared" si="12"/>
-        <v>1511.5369182466811</v>
+        <v>84.19010381933839</v>
       </c>
       <c r="G89" s="6">
         <f t="shared" si="9"/>
-        <v>1511.5369182466811</v>
+        <v>84.19010381933839</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
@@ -10389,23 +10381,23 @@
       </c>
       <c r="C90" s="10">
         <f t="shared" si="7"/>
-        <v>66976.000000000058</v>
+        <v>459.90418024483904</v>
       </c>
       <c r="D90" s="6">
         <f t="shared" si="8"/>
-        <v>1555.1796825396839</v>
+        <v>85.431633663621795</v>
       </c>
       <c r="E90" s="12">
         <f t="shared" si="11"/>
-        <v>1511.5369182466811</v>
+        <v>84.19010381933839</v>
       </c>
       <c r="F90" s="13">
         <f t="shared" si="12"/>
-        <v>1601.4175806439421</v>
+        <v>86.710328615884265</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" si="9"/>
-        <v>1601.4175806439421</v>
+        <v>86.710328615884265</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
@@ -10415,23 +10407,23 @@
       </c>
       <c r="C91" s="10">
         <f t="shared" si="7"/>
-        <v>70958.600207808224</v>
+        <v>473.67137931582897</v>
       </c>
       <c r="D91" s="6">
         <f t="shared" si="8"/>
-        <v>1647.6554787482</v>
+        <v>87.989023568146735</v>
       </c>
       <c r="E91" s="12">
         <f t="shared" si="11"/>
-        <v>1601.4175806439421</v>
+        <v>86.710328615884265</v>
       </c>
       <c r="F91" s="13">
         <f t="shared" si="12"/>
-        <v>1696.6428253504068</v>
+        <v>89.305996163264069</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" si="9"/>
-        <v>1696.6428253504068</v>
+        <v>89.305996163264069</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
@@ -10441,23 +10433,23 @@
       </c>
       <c r="C92" s="10">
         <f t="shared" si="7"/>
-        <v>75178.018147568626</v>
+        <v>487.85069851618891</v>
       </c>
       <c r="D92" s="6">
         <f t="shared" si="8"/>
-        <v>1745.6301719526139</v>
+        <v>90.62296875838139</v>
       </c>
       <c r="E92" s="12">
         <f t="shared" si="11"/>
-        <v>1696.6428253504068</v>
+        <v>89.305996163264069</v>
       </c>
       <c r="F92" s="13">
         <f t="shared" si="12"/>
-        <v>1797.5304577682396</v>
+        <v>91.979364834882091</v>
       </c>
       <c r="G92" s="6">
         <f t="shared" si="9"/>
-        <v>1797.5304577682396</v>
+        <v>91.979364834882091</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
@@ -10467,23 +10459,23 @@
       </c>
       <c r="C93" s="10">
         <f t="shared" si="7"/>
-        <v>79648.335734422333</v>
+        <v>502.45447463281016</v>
       </c>
       <c r="D93" s="6">
         <f t="shared" si="8"/>
-        <v>1849.4307435838655</v>
+        <v>93.335760911382792</v>
       </c>
       <c r="E93" s="12">
         <f t="shared" si="11"/>
-        <v>1797.5304577682396</v>
+        <v>91.979364834882091</v>
       </c>
       <c r="F93" s="13">
         <f t="shared" si="12"/>
-        <v>1904.4171809922195</v>
+        <v>94.732760608390606</v>
       </c>
       <c r="G93" s="6">
         <f t="shared" si="9"/>
-        <v>1904.4171809922195</v>
+        <v>94.732760608390606</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
@@ -10493,23 +10485,23 @@
       </c>
       <c r="C94" s="10">
         <f t="shared" si="7"/>
-        <v>84384.472237759081</v>
+        <v>517.49541375342653</v>
       </c>
       <c r="D94" s="6">
         <f t="shared" si="8"/>
-        <v>1959.4036184005736</v>
+        <v>96.12976030539842</v>
       </c>
       <c r="E94" s="12">
         <f t="shared" si="11"/>
-        <v>1904.4171809922195</v>
+        <v>94.732760608390606</v>
       </c>
       <c r="F94" s="13">
         <f t="shared" si="12"/>
-        <v>2017.6597195250229</v>
+        <v>97.568579089418179</v>
       </c>
       <c r="G94" s="6">
         <f t="shared" si="9"/>
-        <v>2017.6597195250229</v>
+        <v>97.568579089418179</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
@@ -10519,23 +10511,23 @@
       </c>
       <c r="C95" s="10">
         <f t="shared" si="7"/>
-        <v>89402.234072892301</v>
+        <v>532.98660232160807</v>
       </c>
       <c r="D95" s="6">
         <f t="shared" si="8"/>
-        <v>2075.9158206494722</v>
+        <v>99.007397873437938</v>
       </c>
       <c r="E95" s="12">
         <f t="shared" si="11"/>
-        <v>2017.6597195250229</v>
+        <v>97.568579089418179</v>
       </c>
       <c r="F95" s="13">
         <f t="shared" si="12"/>
-        <v>2137.636009812089</v>
+        <v>100.48928759587824</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="9"/>
-        <v>2137.636009812089</v>
+        <v>100.48928759587824</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
@@ -10545,23 +10537,23 @@
       </c>
       <c r="C96" s="10">
         <f t="shared" si="7"/>
-        <v>94718.367553500517</v>
+        <v>548.94151852268658</v>
       </c>
       <c r="D96" s="6">
         <f t="shared" si="8"/>
-        <v>2199.3561989747059</v>
+        <v>101.97117731831855</v>
       </c>
       <c r="E96" s="12">
         <f t="shared" si="11"/>
-        <v>2137.636009812089</v>
+        <v>100.48928759587824</v>
       </c>
       <c r="F96" s="13">
         <f t="shared" si="12"/>
-        <v>2264.7464615693725</v>
+        <v>103.49742730467129</v>
       </c>
       <c r="G96" s="6">
         <f t="shared" si="9"/>
-        <v>2264.7464615693725</v>
+        <v>103.49742730467129</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
@@ -10571,23 +10563,23 @@
       </c>
       <c r="C97" s="10">
         <f t="shared" si="7"/>
-        <v>100350.61478089271</v>
+        <v>565.37404401051754</v>
       </c>
       <c r="D97" s="6">
         <f t="shared" si="8"/>
-        <v>2330.1367241640392</v>
+        <v>105.02367729102403</v>
       </c>
       <c r="E97" s="12">
         <f t="shared" si="11"/>
-        <v>2264.7464615693725</v>
+        <v>103.49742730467129</v>
       </c>
       <c r="F97" s="13">
         <f t="shared" si="12"/>
-        <v>2399.4152941135517</v>
+        <v>106.59561546264838</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="9"/>
-        <v>2399.4152941135517</v>
+        <v>106.59561546264838</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
@@ -10597,23 +10589,23 @@
       </c>
       <c r="C98" s="10">
         <f t="shared" si="7"/>
-        <v>106317.77285662222</v>
+        <v>582.2984759852817</v>
       </c>
       <c r="D98" s="6">
         <f t="shared" si="8"/>
-        <v>2468.6938640630647</v>
+        <v>108.16755363427274</v>
       </c>
       <c r="E98" s="12">
         <f t="shared" si="11"/>
-        <v>2399.4152941135517</v>
+        <v>106.59561546264838</v>
       </c>
       <c r="F98" s="13">
         <f t="shared" si="12"/>
-        <v>2542.091952154562</v>
+        <v>109.78654766375973</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" si="9"/>
-        <v>2542.091952154562</v>
+        <v>109.78654766375973</v>
       </c>
       <c r="J98" t="s">
         <v>30</v>
@@ -10626,23 +10618,23 @@
       </c>
       <c r="C99" s="10">
         <f t="shared" si="7"/>
-        <v>112639.75661606567</v>
+        <v>599.72953963283453</v>
       </c>
       <c r="D99" s="6">
         <f t="shared" si="8"/>
-        <v>2615.4900402460598</v>
+        <v>111.40554169324672</v>
       </c>
       <c r="E99" s="12">
         <f t="shared" si="11"/>
-        <v>2542.091952154562</v>
+        <v>109.78654766375973</v>
       </c>
       <c r="F99" s="13">
         <f t="shared" si="12"/>
-        <v>2693.252605775534</v>
+        <v>113.0730001943696</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="9"/>
-        <v>2693.252605775534</v>
+        <v>113.0730001943696</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -10652,23 +10644,23 @@
       </c>
       <c r="C100" s="10">
         <f t="shared" si="7"/>
-        <v>119337.66509233485</v>
+        <v>617.68240093642794</v>
       </c>
       <c r="D100" s="6">
         <f t="shared" si="8"/>
-        <v>2771.0151713050086</v>
+        <v>114.74045869549246</v>
       </c>
       <c r="E100" s="12">
         <f t="shared" si="11"/>
-        <v>2693.252605775534</v>
+        <v>113.0730001943696</v>
       </c>
       <c r="F100" s="13">
         <f t="shared" si="12"/>
-        <v>2853.4017396061831</v>
+        <v>116.45783244877796</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="9"/>
-        <v>2853.4017396061831</v>
+        <v>116.45783244877796</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
@@ -10678,23 +10670,23 @@
       </c>
       <c r="C101" s="10">
         <f t="shared" si="7"/>
-        <v>126433.85193233835</v>
+        <v>636.17267987194805</v>
       </c>
       <c r="D101" s="6">
         <f t="shared" si="8"/>
-        <v>2935.7883079073576</v>
+        <v>118.17520620206345</v>
       </c>
       <c r="E101" s="12">
         <f t="shared" si="11"/>
-        <v>2853.4017396061831</v>
+        <v>116.45783244877796</v>
       </c>
       <c r="F101" s="13">
         <f t="shared" si="12"/>
-        <v>3023.0738364933627</v>
+        <v>119.94398941705072</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" si="9"/>
-        <v>3023.0738364933627</v>
+        <v>119.94398941705072</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
@@ -10704,23 +10696,23 @@
       </c>
       <c r="C102" s="10">
         <f t="shared" si="7"/>
-        <v>133952.00000000012</v>
+        <v>655.2164639981537</v>
       </c>
       <c r="D102" s="6">
         <f t="shared" si="8"/>
-        <v>3110.3593650793678</v>
+        <v>121.71277263203798</v>
       </c>
       <c r="E102" s="12">
         <f t="shared" si="11"/>
-        <v>3023.0738364933627</v>
+        <v>119.94398941705072</v>
       </c>
       <c r="F102" s="13">
         <f t="shared" si="12"/>
-        <v>3202.8351612878841</v>
+        <v>123.53450424732287</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="9"/>
-        <v>3202.8351612878841</v>
+        <v>123.53450424732287</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
@@ -10730,23 +10722,23 @@
       </c>
       <c r="C103" s="10">
         <f t="shared" si="7"/>
-        <v>141917.20041561645</v>
+        <v>674.83032245373568</v>
       </c>
       <c r="D103" s="6">
         <f t="shared" si="8"/>
-        <v>3295.3109574964001</v>
+        <v>125.35623586260778</v>
       </c>
       <c r="E103" s="12">
         <f t="shared" si="11"/>
-        <v>3202.8351612878841</v>
+        <v>123.53450424732287</v>
       </c>
       <c r="F103" s="13">
         <f t="shared" si="12"/>
-        <v>3393.2856507008146</v>
+        <v>127.23250088480405</v>
       </c>
       <c r="G103" s="6">
         <f t="shared" si="9"/>
-        <v>3393.2856507008146</v>
+        <v>127.23250088480405</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
@@ -10756,23 +10748,23 @@
       </c>
       <c r="C104" s="10">
         <f t="shared" si="7"/>
-        <v>150356.03629513728</v>
+        <v>695.03132037337821</v>
       </c>
       <c r="D104" s="6">
         <f t="shared" si="8"/>
-        <v>3491.2603439052286</v>
+        <v>129.10876590700033</v>
       </c>
       <c r="E104" s="12">
         <f t="shared" si="11"/>
-        <v>3393.2856507008146</v>
+        <v>127.23250088480405</v>
       </c>
       <c r="F104" s="13">
         <f t="shared" si="12"/>
-        <v>3595.06091553648</v>
+        <v>131.04119678978253</v>
       </c>
       <c r="G104" s="6">
         <f t="shared" si="9"/>
-        <v>3595.06091553648</v>
+        <v>131.04119678978253</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -10782,23 +10774,23 @@
       </c>
       <c r="C105" s="10">
         <f t="shared" si="7"/>
-        <v>159296.67146884467</v>
+        <v>715.83703373536423</v>
       </c>
       <c r="D105" s="6">
         <f t="shared" si="8"/>
-        <v>3698.861487167731</v>
+        <v>132.9736276725647</v>
       </c>
       <c r="E105" s="12">
         <f t="shared" si="11"/>
-        <v>3595.06091553648</v>
+        <v>131.04119678978253</v>
       </c>
       <c r="F105" s="13">
         <f t="shared" si="12"/>
-        <v>3808.8343619844395</v>
+        <v>134.9639057369925</v>
       </c>
       <c r="G105" s="6">
         <f t="shared" si="9"/>
-        <v>3808.8343619844395</v>
+        <v>134.9639057369925</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -10808,23 +10800,23 @@
       </c>
       <c r="C106" s="10">
         <f t="shared" si="7"/>
-        <v>168768.94447551819</v>
+        <v>737.26556465364195</v>
       </c>
       <c r="D106" s="6">
         <f t="shared" si="8"/>
-        <v>3918.8072368011481</v>
+        <v>136.9541838014203</v>
       </c>
       <c r="E106" s="12">
         <f t="shared" si="11"/>
-        <v>3808.8343619844395</v>
+        <v>134.9639057369925</v>
       </c>
       <c r="F106" s="13">
         <f t="shared" si="12"/>
-        <v>4035.3194390500462</v>
+        <v>139.00404069878022</v>
       </c>
       <c r="G106" s="6">
         <f t="shared" si="9"/>
-        <v>4035.3194390500462</v>
+        <v>139.00404069878022</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
@@ -10834,23 +10826,23 @@
       </c>
       <c r="C107" s="10">
         <f t="shared" si="7"/>
-        <v>178804.46814578463</v>
+        <v>759.33555712765883</v>
       </c>
       <c r="D107" s="6">
         <f t="shared" si="8"/>
-        <v>4151.8316412989443</v>
+        <v>141.05389759614016</v>
       </c>
       <c r="E107" s="12">
         <f t="shared" si="11"/>
-        <v>4035.3194390500462</v>
+        <v>139.00404069878022</v>
       </c>
       <c r="F107" s="13">
         <f t="shared" si="12"/>
-        <v>4275.272019624178</v>
+        <v>143.16511681457746</v>
       </c>
       <c r="G107" s="6">
         <f t="shared" si="9"/>
-        <v>4275.272019624178</v>
+        <v>143.16511681457746</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
@@ -10860,23 +10852,23 @@
       </c>
       <c r="C108" s="10">
         <f t="shared" si="7"/>
-        <v>189436.73510700103</v>
+        <v>782.06621326366565</v>
       </c>
       <c r="D108" s="6">
         <f t="shared" si="8"/>
-        <v>4398.7123979494118</v>
+        <v>145.27633603301473</v>
       </c>
       <c r="E108" s="12">
         <f t="shared" si="11"/>
-        <v>4275.272019624178</v>
+        <v>143.16511681457746</v>
       </c>
       <c r="F108" s="13">
         <f t="shared" si="12"/>
-        <v>4529.4929231387459</v>
+        <v>147.45075444926587</v>
       </c>
       <c r="G108" s="6">
         <f t="shared" si="9"/>
-        <v>4529.4929231387459</v>
+        <v>147.45075444926587</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
@@ -10886,23 +10878,23 @@
       </c>
       <c r="C109" s="10">
         <f t="shared" si="7"/>
-        <v>200701.22956178547</v>
+        <v>805.47730998160409</v>
       </c>
       <c r="D109" s="6">
         <f t="shared" si="8"/>
-        <v>4660.2734483280801</v>
+        <v>149.62517286551702</v>
       </c>
       <c r="E109" s="12">
         <f t="shared" si="11"/>
-        <v>4529.4929231387459</v>
+        <v>147.45075444926587</v>
       </c>
       <c r="F109" s="13">
         <f t="shared" si="12"/>
-        <v>4798.8305882271052</v>
+        <v>151.86468234309368</v>
       </c>
       <c r="G109" s="6">
         <f t="shared" si="9"/>
-        <v>4798.8305882271052</v>
+        <v>151.86468234309368</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
@@ -10912,23 +10904,23 @@
       </c>
       <c r="C110" s="10">
         <f t="shared" si="7"/>
-        <v>212635.54571324444</v>
+        <v>829.58921622211449</v>
       </c>
       <c r="D110" s="6">
         <f t="shared" si="8"/>
-        <v>4937.3877281261293</v>
+        <v>154.10419182067034</v>
       </c>
       <c r="E110" s="12">
         <f t="shared" si="11"/>
-        <v>4798.8305882271052</v>
+        <v>151.86468234309368</v>
       </c>
       <c r="F110" s="13">
         <f t="shared" si="12"/>
-        <v>5084.183904309124</v>
+        <v>156.41074085588428</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" si="9"/>
-        <v>5084.183904309124</v>
+        <v>156.41074085588428</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
@@ -10938,23 +10930,23 @@
       </c>
       <c r="C111" s="10">
         <f t="shared" si="7"/>
-        <v>225279.51323213134</v>
+        <v>854.42291066863197</v>
       </c>
       <c r="D111" s="6">
         <f t="shared" si="8"/>
-        <v>5230.9800804921197</v>
+        <v>158.71728989109826</v>
       </c>
       <c r="E111" s="12">
         <f t="shared" si="11"/>
-        <v>5084.183904309124</v>
+        <v>156.41074085588428</v>
       </c>
       <c r="F111" s="13">
         <f t="shared" si="12"/>
-        <v>5386.5052115510689</v>
+        <v>161.09288530836045</v>
       </c>
       <c r="G111" s="6">
         <f t="shared" si="9"/>
-        <v>5386.5052115510689</v>
+        <v>161.09288530836045</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
@@ -10964,23 +10956,23 @@
       </c>
       <c r="C112" s="10">
         <f t="shared" si="7"/>
-        <v>238675.33018466973</v>
+        <v>879.99999999999511</v>
       </c>
       <c r="D112" s="6">
         <f t="shared" si="8"/>
-        <v>5542.0303426100181</v>
+        <v>163.46848072562267</v>
       </c>
       <c r="E112" s="12">
         <f t="shared" si="11"/>
-        <v>5386.5052115510689</v>
+        <v>161.09288530836045</v>
       </c>
       <c r="F112" s="13">
         <f t="shared" si="12"/>
-        <v>5706.8034792123672</v>
+        <v>165.9151894234908</v>
       </c>
       <c r="G112" s="6">
         <f t="shared" si="9"/>
-        <v>5706.8034792123672</v>
+        <v>165.9151894234908</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
@@ -10990,23 +10982,23 @@
       </c>
       <c r="C113" s="10">
         <f t="shared" si="7"/>
-        <v>252867.7038646767</v>
+        <v>906.34273768944468</v>
       </c>
       <c r="D113" s="6">
         <f t="shared" si="8"/>
-        <v>5871.5766158147153</v>
+        <v>168.36189812135896</v>
       </c>
       <c r="E113" s="12">
         <f t="shared" si="11"/>
-        <v>5706.8034792123672</v>
+        <v>165.9151894234908</v>
       </c>
       <c r="F113" s="13">
         <f t="shared" si="12"/>
-        <v>6046.1476729867263</v>
+        <v>170.88184887085259</v>
       </c>
       <c r="G113" s="6">
         <f t="shared" si="9"/>
-        <v>6046.1476729867263</v>
+        <v>170.88184887085259</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
@@ -11016,23 +11008,23 @@
       </c>
       <c r="C114" s="10">
         <f t="shared" ref="C114:C116" si="13">$B$6*POWER($B$12,B114)</f>
-        <v>267904.00000000029</v>
+        <v>933.474043366366</v>
       </c>
       <c r="D114" s="6">
         <f t="shared" si="8"/>
-        <v>6220.7187301587373</v>
+        <v>173.40179962034625</v>
       </c>
       <c r="E114" s="12">
         <f t="shared" si="11"/>
-        <v>6046.1476729867263</v>
+        <v>170.88184887085259</v>
       </c>
       <c r="F114" s="13">
         <f t="shared" si="12"/>
-        <v>6405.6703225757692</v>
+        <v>175.99718491709467</v>
       </c>
       <c r="G114" s="6">
         <f t="shared" si="9"/>
-        <v>6405.6703225757692</v>
+        <v>175.99718491709467</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
@@ -11042,23 +11034,23 @@
       </c>
       <c r="C115" s="10">
         <f t="shared" si="13"/>
-        <v>283834.40083123295</v>
+        <v>961.41752275762713</v>
       </c>
       <c r="D115" s="6">
         <f t="shared" si="8"/>
-        <v>6590.6219149928011</v>
+        <v>178.59257021384312</v>
       </c>
       <c r="E115" s="12">
         <f t="shared" si="11"/>
-        <v>6405.6703225757692</v>
+        <v>175.99718491709467</v>
       </c>
       <c r="F115" s="13">
         <f t="shared" si="12"/>
-        <v>6786.5713014016292</v>
+        <v>181.26564818567715</v>
       </c>
       <c r="G115" s="6">
         <f t="shared" si="9"/>
-        <v>6786.5713014016292</v>
+        <v>181.26564818567715</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
@@ -11068,69 +11060,3152 @@
       </c>
       <c r="C116" s="10">
         <f t="shared" si="13"/>
-        <v>300712.07259027456</v>
+        <v>990.19748822585973</v>
       </c>
       <c r="D116" s="6">
         <f t="shared" si="8"/>
-        <v>6982.5206878104573</v>
+        <v>183.93872615751118</v>
       </c>
       <c r="E116" s="12">
         <f t="shared" si="11"/>
-        <v>6786.5713014016292</v>
+        <v>181.26564818567715</v>
       </c>
       <c r="F116" s="13">
         <f t="shared" si="12"/>
-        <v>3491.2603439052286</v>
+        <v>186.69182252915823</v>
       </c>
       <c r="G116" s="6">
         <f t="shared" si="9"/>
-        <v>3491.2603439052286</v>
+        <v>186.69182252915823</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="5">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="C117" s="10">
+        <f t="shared" ref="C117:C180" si="14">$B$6*POWER($B$12,B117)</f>
+        <v>1019.8389799225481</v>
+      </c>
+      <c r="D117" s="6">
+        <f t="shared" ref="D117:D180" si="15">C117/$B$14</f>
+        <v>189.44491890080531</v>
+      </c>
+      <c r="E117" s="12">
+        <f t="shared" ref="E117:E180" si="16">F116</f>
+        <v>186.69182252915823</v>
+      </c>
+      <c r="F117" s="13">
+        <f t="shared" ref="F117:F180" si="17">((D118-D117)/2)+D117</f>
+        <v>192.28042901739792</v>
+      </c>
+      <c r="G117" s="6">
+        <f t="shared" ref="G117:G180" si="18">F117</f>
+        <v>192.28042901739792</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="5">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="C118" s="10">
+        <f t="shared" si="14"/>
+        <v>1050.3677875743385</v>
+      </c>
+      <c r="D118" s="6">
+        <f t="shared" si="15"/>
+        <v>195.11593913399051</v>
+      </c>
+      <c r="E118" s="12">
+        <f t="shared" si="16"/>
+        <v>192.28042901739792</v>
+      </c>
+      <c r="F118" s="13">
+        <f t="shared" si="17"/>
+        <v>198.03633004514811</v>
+      </c>
+      <c r="G118" s="6">
+        <f t="shared" si="18"/>
+        <v>198.03633004514811</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="5">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="C119" s="10">
+        <f t="shared" si="14"/>
+        <v>1081.8104729215188</v>
+      </c>
+      <c r="D119" s="6">
+        <f t="shared" si="15"/>
+        <v>200.9567209563057</v>
+      </c>
+      <c r="E119" s="12">
+        <f t="shared" si="16"/>
+        <v>198.03633004514811</v>
+      </c>
+      <c r="F119" s="13">
+        <f t="shared" si="17"/>
+        <v>203.96453356260338</v>
+      </c>
+      <c r="G119" s="6">
+        <f t="shared" si="18"/>
+        <v>203.96453356260338</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="5">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="C120" s="10">
+        <f t="shared" si="14"/>
+        <v>1114.1943928281903</v>
+      </c>
+      <c r="D120" s="6">
+        <f t="shared" si="15"/>
+        <v>206.97234616890103</v>
+      </c>
+      <c r="E120" s="12">
+        <f t="shared" si="16"/>
+        <v>203.96453356260338</v>
+      </c>
+      <c r="F120" s="13">
+        <f t="shared" si="17"/>
+        <v>210.07019743259269</v>
+      </c>
+      <c r="G120" s="6">
+        <f t="shared" si="18"/>
+        <v>210.07019743259269</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="5">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="C121" s="10">
+        <f t="shared" si="14"/>
+        <v>1147.5477230842455</v>
+      </c>
+      <c r="D121" s="6">
+        <f t="shared" si="15"/>
+        <v>213.16804869628433</v>
+      </c>
+      <c r="E121" s="12">
+        <f t="shared" si="16"/>
+        <v>210.07019743259269</v>
+      </c>
+      <c r="F121" s="13">
+        <f t="shared" si="17"/>
+        <v>216.35863391820368</v>
+      </c>
+      <c r="G121" s="6">
+        <f t="shared" si="18"/>
+        <v>216.35863391820368</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="5">
+        <f t="shared" si="10"/>
+        <v>104</v>
+      </c>
+      <c r="C122" s="10">
+        <f t="shared" si="14"/>
+        <v>1181.8994829198516</v>
+      </c>
+      <c r="D122" s="6">
+        <f t="shared" si="15"/>
+        <v>219.549219140123</v>
+      </c>
+      <c r="E122" s="12">
+        <f t="shared" si="16"/>
+        <v>216.35863391820368</v>
+      </c>
+      <c r="F122" s="13">
+        <f t="shared" si="17"/>
+        <v>222.83531430474332</v>
+      </c>
+      <c r="G122" s="6">
+        <f t="shared" si="18"/>
+        <v>222.83531430474332</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="5">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="C123" s="10">
+        <f t="shared" si="14"/>
+        <v>1217.2795602537765</v>
+      </c>
+      <c r="D123" s="6">
+        <f t="shared" si="15"/>
+        <v>226.12140946936364</v>
+      </c>
+      <c r="E123" s="12">
+        <f t="shared" si="16"/>
+        <v>222.83531430474332</v>
+      </c>
+      <c r="F123" s="13">
+        <f t="shared" si="17"/>
+        <v>229.50587366005686</v>
+      </c>
+      <c r="G123" s="6">
+        <f t="shared" si="18"/>
+        <v>229.50587366005686</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="5">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="C124" s="10">
+        <f t="shared" si="14"/>
+        <v>1253.7187376975194</v>
+      </c>
+      <c r="D124" s="6">
+        <f t="shared" si="15"/>
+        <v>232.89033785075009</v>
+      </c>
+      <c r="E124" s="12">
+        <f t="shared" si="16"/>
+        <v>229.50587366005686</v>
+      </c>
+      <c r="F124" s="13">
+        <f t="shared" si="17"/>
+        <v>236.37611573734642</v>
+      </c>
+      <c r="G124" s="6">
+        <f t="shared" si="18"/>
+        <v>236.37611573734642</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="5">
+        <f t="shared" si="10"/>
+        <v>107</v>
+      </c>
+      <c r="C125" s="10">
+        <f t="shared" si="14"/>
+        <v>1291.2487193378756</v>
+      </c>
+      <c r="D125" s="6">
+        <f t="shared" si="15"/>
+        <v>239.86189362394279</v>
+      </c>
+      <c r="E125" s="12">
+        <f t="shared" si="16"/>
+        <v>236.37611573734642</v>
+      </c>
+      <c r="F125" s="13">
+        <f t="shared" si="17"/>
+        <v>243.45201802475543</v>
+      </c>
+      <c r="G125" s="6">
+        <f t="shared" si="18"/>
+        <v>243.45201802475543</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="5">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="C126" s="10">
+        <f t="shared" si="14"/>
+        <v>1329.9021583212343</v>
+      </c>
+      <c r="D126" s="6">
+        <f t="shared" si="15"/>
+        <v>247.04214242556807</v>
+      </c>
+      <c r="E126" s="12">
+        <f t="shared" si="16"/>
+        <v>243.45201802475543</v>
+      </c>
+      <c r="F126" s="13">
+        <f t="shared" si="17"/>
+        <v>250.73973694611149</v>
+      </c>
+      <c r="G126" s="6">
+        <f t="shared" si="18"/>
+        <v>250.73973694611149</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="5">
+        <f t="shared" si="10"/>
+        <v>109</v>
+      </c>
+      <c r="C127" s="10">
+        <f t="shared" si="14"/>
+        <v>1369.7126852636086</v>
+      </c>
+      <c r="D127" s="6">
+        <f t="shared" si="15"/>
+        <v>254.43733146665491</v>
+      </c>
+      <c r="E127" s="12">
+        <f t="shared" si="16"/>
+        <v>250.73973694611149</v>
+      </c>
+      <c r="F127" s="13">
+        <f t="shared" si="17"/>
+        <v>258.24561321735354</v>
+      </c>
+      <c r="G127" s="6">
+        <f t="shared" si="18"/>
+        <v>258.24561321735354</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="5">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="C128" s="10">
+        <f t="shared" si="14"/>
+        <v>1410.7149375111208</v>
+      </c>
+      <c r="D128" s="6">
+        <f t="shared" si="15"/>
+        <v>262.05389496805219</v>
+      </c>
+      <c r="E128" s="12">
+        <f t="shared" si="16"/>
+        <v>258.24561321735354</v>
+      </c>
+      <c r="F128" s="13">
+        <f t="shared" si="17"/>
+        <v>265.97617736330335</v>
+      </c>
+      <c r="G128" s="6">
+        <f t="shared" si="18"/>
+        <v>265.97617736330335</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="5">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+      <c r="C129" s="10">
+        <f t="shared" si="14"/>
+        <v>1452.9445892763979</v>
+      </c>
+      <c r="D129" s="6">
+        <f t="shared" si="15"/>
+        <v>269.89845975855445</v>
+      </c>
+      <c r="E129" s="12">
+        <f t="shared" si="16"/>
+        <v>265.97617736330335</v>
+      </c>
+      <c r="F129" s="13">
+        <f t="shared" si="17"/>
+        <v>273.93815539958064</v>
+      </c>
+      <c r="G129" s="6">
+        <f t="shared" si="18"/>
+        <v>273.93815539958064</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="5">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
+      <c r="C130" s="10">
+        <f t="shared" si="14"/>
+        <v>1496.4383826770945</v>
+      </c>
+      <c r="D130" s="6">
+        <f t="shared" si="15"/>
+        <v>277.97785104060677</v>
+      </c>
+      <c r="E130" s="12">
+        <f t="shared" si="16"/>
+        <v>273.93815539958064</v>
+      </c>
+      <c r="F130" s="13">
+        <f t="shared" si="17"/>
+        <v>282.13847468460654</v>
+      </c>
+      <c r="G130" s="6">
+        <f t="shared" si="18"/>
+        <v>282.13847468460654</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="5">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+      <c r="C131" s="10">
+        <f t="shared" si="14"/>
+        <v>1541.2341597035568</v>
+      </c>
+      <c r="D131" s="6">
+        <f t="shared" si="15"/>
+        <v>286.29909832860631</v>
+      </c>
+      <c r="E131" s="12">
+        <f t="shared" si="16"/>
+        <v>282.13847468460654</v>
+      </c>
+      <c r="F131" s="13">
+        <f t="shared" si="17"/>
+        <v>290.58426994678609</v>
+      </c>
+      <c r="G131" s="6">
+        <f t="shared" si="18"/>
+        <v>290.58426994678609</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="5">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+      <c r="C132" s="10">
+        <f t="shared" si="14"/>
+        <v>1587.3708951434321</v>
+      </c>
+      <c r="D132" s="6">
+        <f t="shared" si="15"/>
+        <v>294.86944156496588</v>
+      </c>
+      <c r="E132" s="12">
+        <f t="shared" si="16"/>
+        <v>290.58426994678609</v>
+      </c>
+      <c r="F132" s="13">
+        <f t="shared" si="17"/>
+        <v>299.28288949211384</v>
+      </c>
+      <c r="G132" s="6">
+        <f t="shared" si="18"/>
+        <v>299.28288949211384</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="5">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
+      <c r="C133" s="10">
+        <f t="shared" si="14"/>
+        <v>1634.8887304918758</v>
+      </c>
+      <c r="D133" s="6">
+        <f t="shared" si="15"/>
+        <v>303.69633741926179</v>
+      </c>
+      <c r="E133" s="12">
+        <f t="shared" si="16"/>
+        <v>299.28288949211384</v>
+      </c>
+      <c r="F133" s="13">
+        <f t="shared" si="17"/>
+        <v>308.24190159760394</v>
+      </c>
+      <c r="G133" s="6">
+        <f t="shared" si="18"/>
+        <v>308.24190159760394</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="5">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="C134" s="10">
+        <f t="shared" si="14"/>
+        <v>1683.8290088768583</v>
+      </c>
+      <c r="D134" s="6">
+        <f t="shared" si="15"/>
+        <v>312.78746577594609</v>
+      </c>
+      <c r="E134" s="12">
+        <f t="shared" si="16"/>
+        <v>308.24190159760394</v>
+      </c>
+      <c r="F134" s="13">
+        <f t="shared" si="17"/>
+        <v>317.46910109610718</v>
+      </c>
+      <c r="G134" s="6">
+        <f t="shared" si="18"/>
+        <v>317.46910109610718</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="5">
+        <f t="shared" si="10"/>
+        <v>117</v>
+      </c>
+      <c r="C135" s="10">
+        <f t="shared" si="14"/>
+        <v>1734.2343110299598</v>
+      </c>
+      <c r="D135" s="6">
+        <f t="shared" si="15"/>
+        <v>322.15073641626827</v>
+      </c>
+      <c r="E135" s="12">
+        <f t="shared" si="16"/>
+        <v>317.46910109610718</v>
+      </c>
+      <c r="F135" s="13">
+        <f t="shared" si="17"/>
+        <v>326.97251615824371</v>
+      </c>
+      <c r="G135" s="6">
+        <f t="shared" si="18"/>
+        <v>326.97251615824371</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="5">
+        <f t="shared" si="10"/>
+        <v>118</v>
+      </c>
+      <c r="C136" s="10">
+        <f t="shared" si="14"/>
+        <v>1786.1484923339433</v>
+      </c>
+      <c r="D136" s="6">
+        <f t="shared" si="15"/>
+        <v>331.79429590021914</v>
+      </c>
+      <c r="E136" s="12">
+        <f t="shared" si="16"/>
+        <v>326.97251615824371</v>
+      </c>
+      <c r="F136" s="13">
+        <f t="shared" si="17"/>
+        <v>336.76041527735271</v>
+      </c>
+      <c r="G136" s="6">
+        <f t="shared" si="18"/>
+        <v>336.76041527735271</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="5">
+        <f t="shared" si="10"/>
+        <v>119</v>
+      </c>
+      <c r="C137" s="10">
+        <f t="shared" si="14"/>
+        <v>1839.6167209793512</v>
+      </c>
+      <c r="D137" s="6">
+        <f t="shared" si="15"/>
+        <v>341.72653465448627</v>
+      </c>
+      <c r="E137" s="12">
+        <f t="shared" si="16"/>
+        <v>336.76041527735271</v>
+      </c>
+      <c r="F137" s="13">
+        <f t="shared" si="17"/>
+        <v>346.84131446353615</v>
+      </c>
+      <c r="G137" s="6">
+        <f t="shared" si="18"/>
+        <v>346.84131446353615</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="5">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="C138" s="10">
+        <f t="shared" si="14"/>
+        <v>1894.6855172633109</v>
+      </c>
+      <c r="D138" s="6">
+        <f t="shared" si="15"/>
+        <v>351.95609427258603</v>
+      </c>
+      <c r="E138" s="12">
+        <f t="shared" si="16"/>
+        <v>346.84131446353615</v>
+      </c>
+      <c r="F138" s="13">
+        <f t="shared" si="17"/>
+        <v>357.22398465305531</v>
+      </c>
+      <c r="G138" s="6">
+        <f t="shared" si="18"/>
+        <v>357.22398465305531</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="5">
+        <f t="shared" si="10"/>
+        <v>121</v>
+      </c>
+      <c r="C139" s="10">
+        <f t="shared" si="14"/>
+        <v>1951.4027940647502</v>
+      </c>
+      <c r="D139" s="6">
+        <f t="shared" si="15"/>
+        <v>362.49187503352459</v>
+      </c>
+      <c r="E139" s="12">
+        <f t="shared" si="16"/>
+        <v>357.22398465305531</v>
+      </c>
+      <c r="F139" s="13">
+        <f t="shared" si="17"/>
+        <v>367.91745933952734</v>
+      </c>
+      <c r="G139" s="6">
+        <f t="shared" si="18"/>
+        <v>367.91745933952734</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="5">
+        <f t="shared" si="10"/>
+        <v>122</v>
+      </c>
+      <c r="C140" s="10">
+        <f t="shared" si="14"/>
+        <v>2009.8178985312352</v>
+      </c>
+      <c r="D140" s="6">
+        <f t="shared" si="15"/>
+        <v>373.34304364553014</v>
+      </c>
+      <c r="E140" s="12">
+        <f t="shared" si="16"/>
+        <v>367.91745933952734</v>
+      </c>
+      <c r="F140" s="13">
+        <f t="shared" si="17"/>
+        <v>378.93104243356134</v>
+      </c>
+      <c r="G140" s="6">
+        <f t="shared" si="18"/>
+        <v>378.93104243356134</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="5">
+        <f t="shared" si="10"/>
+        <v>123</v>
+      </c>
+      <c r="C141" s="10">
+        <f t="shared" si="14"/>
+        <v>2069.9816550137002</v>
+      </c>
+      <c r="D141" s="6">
+        <f t="shared" si="15"/>
+        <v>384.51904122159254</v>
+      </c>
+      <c r="E141" s="12">
+        <f t="shared" si="16"/>
+        <v>378.93104243356134</v>
+      </c>
+      <c r="F141" s="13">
+        <f t="shared" si="17"/>
+        <v>390.27431635767158</v>
+      </c>
+      <c r="G141" s="6">
+        <f t="shared" si="18"/>
+        <v>390.27431635767158</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="5">
+        <f t="shared" si="10"/>
+        <v>124</v>
+      </c>
+      <c r="C142" s="10">
+        <f t="shared" si="14"/>
+        <v>2131.9464092864259</v>
+      </c>
+      <c r="D142" s="6">
+        <f t="shared" si="15"/>
+        <v>396.02959149375062</v>
+      </c>
+      <c r="E142" s="12">
+        <f t="shared" si="16"/>
+        <v>390.27431635767158</v>
+      </c>
+      <c r="F142" s="13">
+        <f t="shared" si="17"/>
+        <v>401.95715038351187</v>
+      </c>
+      <c r="G142" s="6">
+        <f t="shared" si="18"/>
+        <v>401.95715038351187</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="5">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="C143" s="10">
+        <f t="shared" si="14"/>
+        <v>2195.7660740907404</v>
+      </c>
+      <c r="D143" s="6">
+        <f t="shared" si="15"/>
+        <v>407.88470927327313</v>
+      </c>
+      <c r="E143" s="12">
+        <f t="shared" si="16"/>
+        <v>401.95715038351187</v>
+      </c>
+      <c r="F143" s="13">
+        <f t="shared" si="17"/>
+        <v>413.98970921868403</v>
+      </c>
+      <c r="G143" s="6">
+        <f t="shared" si="18"/>
+        <v>413.98970921868403</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="5">
+        <f t="shared" si="10"/>
+        <v>126</v>
+      </c>
+      <c r="C144" s="10">
+        <f t="shared" si="14"/>
+        <v>2261.4961760420638</v>
+      </c>
+      <c r="D144" s="6">
+        <f t="shared" si="15"/>
+        <v>420.09470916409492</v>
+      </c>
+      <c r="E144" s="12">
+        <f t="shared" si="16"/>
+        <v>413.98970921868403</v>
+      </c>
+      <c r="F144" s="13">
+        <f t="shared" si="17"/>
+        <v>426.38246185059234</v>
+      </c>
+      <c r="G144" s="6">
+        <f t="shared" si="18"/>
+        <v>426.38246185059234</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="5">
+        <f t="shared" si="10"/>
+        <v>127</v>
+      </c>
+      <c r="C145" s="10">
+        <f t="shared" si="14"/>
+        <v>2329.1939039411204</v>
+      </c>
+      <c r="D145" s="6">
+        <f t="shared" si="15"/>
+        <v>432.67021453708975</v>
+      </c>
+      <c r="E145" s="12">
+        <f t="shared" si="16"/>
+        <v>426.38246185059234</v>
+      </c>
+      <c r="F145" s="13">
+        <f t="shared" si="17"/>
+        <v>439.14619065503769</v>
+      </c>
+      <c r="G145" s="6">
+        <f t="shared" si="18"/>
+        <v>439.14619065503769</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="5">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+      <c r="C146" s="10">
+        <f t="shared" si="14"/>
+        <v>2398.9181585313313</v>
+      </c>
+      <c r="D146" s="6">
+        <f t="shared" si="15"/>
+        <v>445.62216677298562</v>
+      </c>
+      <c r="E146" s="12">
+        <f t="shared" si="16"/>
+        <v>439.14619065503769</v>
+      </c>
+      <c r="F146" s="13">
+        <f t="shared" si="17"/>
+        <v>452.29200077747703</v>
+      </c>
+      <c r="G146" s="6">
+        <f t="shared" si="18"/>
+        <v>452.29200077747703</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="5">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="C147" s="10">
+        <f t="shared" si="14"/>
+        <v>2470.7296037457045</v>
+      </c>
+      <c r="D147" s="6">
+        <f t="shared" si="15"/>
+        <v>458.96183478196849</v>
+      </c>
+      <c r="E147" s="12">
+        <f t="shared" si="16"/>
+        <v>452.29200077747703</v>
+      </c>
+      <c r="F147" s="13">
+        <f t="shared" si="17"/>
+        <v>465.83132979511049</v>
+      </c>
+      <c r="G147" s="6">
+        <f t="shared" si="18"/>
+        <v>465.83132979511049</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="5">
+        <f t="shared" ref="B148:B211" si="19">B147+1</f>
+        <v>130</v>
+      </c>
+      <c r="C148" s="10">
+        <f t="shared" si="14"/>
+        <v>2544.6907194877854</v>
+      </c>
+      <c r="D148" s="6">
+        <f t="shared" si="15"/>
+        <v>472.70082480825255</v>
+      </c>
+      <c r="E148" s="12">
+        <f t="shared" si="16"/>
+        <v>465.83132979511049</v>
+      </c>
+      <c r="F148" s="13">
+        <f t="shared" si="17"/>
+        <v>479.77595766820156</v>
+      </c>
+      <c r="G148" s="6">
+        <f t="shared" si="18"/>
+        <v>479.77595766820156</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="5">
+        <f t="shared" si="19"/>
+        <v>131</v>
+      </c>
+      <c r="C149" s="10">
+        <f t="shared" si="14"/>
+        <v>2620.8658559926075</v>
+      </c>
+      <c r="D149" s="6">
+        <f t="shared" si="15"/>
+        <v>486.85109052815056</v>
+      </c>
+      <c r="E149" s="12">
+        <f t="shared" si="16"/>
+        <v>479.77595766820156</v>
+      </c>
+      <c r="F149" s="13">
+        <f t="shared" si="17"/>
+        <v>494.13801698929012</v>
+      </c>
+      <c r="G149" s="6">
+        <f t="shared" si="18"/>
+        <v>494.13801698929012</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="5">
+        <f t="shared" si="19"/>
+        <v>132</v>
+      </c>
+      <c r="C150" s="10">
+        <f t="shared" si="14"/>
+        <v>2699.321289814935</v>
+      </c>
+      <c r="D150" s="6">
+        <f t="shared" si="15"/>
+        <v>501.42494345042962</v>
+      </c>
+      <c r="E150" s="12">
+        <f t="shared" si="16"/>
+        <v>494.13801698929012</v>
+      </c>
+      <c r="F150" s="13">
+        <f t="shared" si="17"/>
+        <v>508.93000353921474</v>
+      </c>
+      <c r="G150" s="6">
+        <f t="shared" si="18"/>
+        <v>508.93000353921474</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" s="5">
+        <f t="shared" si="19"/>
+        <v>133</v>
+      </c>
+      <c r="C151" s="10">
+        <f t="shared" si="14"/>
+        <v>2780.1252814935051</v>
+      </c>
+      <c r="D151" s="6">
+        <f t="shared" si="15"/>
+        <v>516.43506362799985</v>
+      </c>
+      <c r="E151" s="12">
+        <f t="shared" si="16"/>
+        <v>508.93000353921474</v>
+      </c>
+      <c r="F151" s="13">
+        <f t="shared" si="17"/>
+        <v>524.16478715912854</v>
+      </c>
+      <c r="G151" s="6">
+        <f t="shared" si="18"/>
+        <v>524.16478715912854</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="5">
+        <f t="shared" si="19"/>
+        <v>134</v>
+      </c>
+      <c r="C152" s="10">
+        <f t="shared" si="14"/>
+        <v>2863.3481349414487</v>
+      </c>
+      <c r="D152" s="6">
+        <f t="shared" si="15"/>
+        <v>531.89451069025733</v>
+      </c>
+      <c r="E152" s="12">
+        <f t="shared" si="16"/>
+        <v>524.16478715912854</v>
+      </c>
+      <c r="F152" s="13">
+        <f t="shared" si="17"/>
+        <v>539.85562294796841</v>
+      </c>
+      <c r="G152" s="6">
+        <f t="shared" si="18"/>
+        <v>539.85562294796841</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="5">
+        <f t="shared" si="19"/>
+        <v>135</v>
+      </c>
+      <c r="C153" s="10">
+        <f t="shared" si="14"/>
+        <v>2949.0622586145596</v>
+      </c>
+      <c r="D153" s="6">
+        <f t="shared" si="15"/>
+        <v>547.81673520567961</v>
+      </c>
+      <c r="E153" s="12">
+        <f t="shared" si="16"/>
+        <v>539.85562294796841</v>
+      </c>
+      <c r="F153" s="13">
+        <f t="shared" si="17"/>
+        <v>556.01616279511939</v>
+      </c>
+      <c r="G153" s="6">
+        <f t="shared" si="18"/>
+        <v>556.01616279511939</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="5">
+        <f t="shared" si="19"/>
+        <v>136</v>
+      </c>
+      <c r="C154" s="10">
+        <f t="shared" si="14"/>
+        <v>3037.3422285106271</v>
+      </c>
+      <c r="D154" s="6">
+        <f t="shared" si="15"/>
+        <v>564.21559038455916</v>
+      </c>
+      <c r="E154" s="12">
+        <f t="shared" si="16"/>
+        <v>556.01616279511939</v>
+      </c>
+      <c r="F154" s="13">
+        <f t="shared" si="17"/>
+        <v>572.66046725830824</v>
+      </c>
+      <c r="G154" s="6">
+        <f t="shared" si="18"/>
+        <v>572.66046725830824</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="5">
+        <f t="shared" si="19"/>
+        <v>137</v>
+      </c>
+      <c r="C155" s="10">
+        <f t="shared" si="14"/>
+        <v>3128.2648530546539</v>
+      </c>
+      <c r="D155" s="6">
+        <f t="shared" si="15"/>
+        <v>581.10534413205721</v>
+      </c>
+      <c r="E155" s="12">
+        <f t="shared" si="16"/>
+        <v>572.66046725830824</v>
+      </c>
+      <c r="F155" s="13">
+        <f t="shared" si="17"/>
+        <v>589.8030177970619</v>
+      </c>
+      <c r="G155" s="6">
+        <f t="shared" si="18"/>
+        <v>589.8030177970619</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="5">
+        <f t="shared" si="19"/>
+        <v>138</v>
+      </c>
+      <c r="C156" s="10">
+        <f t="shared" si="14"/>
+        <v>3221.9092399264082</v>
+      </c>
+      <c r="D156" s="6">
+        <f t="shared" si="15"/>
+        <v>598.50069146206658</v>
+      </c>
+      <c r="E156" s="12">
+        <f t="shared" si="16"/>
+        <v>589.8030177970619</v>
+      </c>
+      <c r="F156" s="13">
+        <f t="shared" si="17"/>
+        <v>607.458729372373</v>
+      </c>
+      <c r="G156" s="6">
+        <f t="shared" si="18"/>
+        <v>607.458729372373</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="5">
+        <f t="shared" si="19"/>
+        <v>139</v>
+      </c>
+      <c r="C157" s="10">
+        <f t="shared" si="14"/>
+        <v>3318.3568648884479</v>
+      </c>
+      <c r="D157" s="6">
+        <f t="shared" si="15"/>
+        <v>616.41676728267953</v>
+      </c>
+      <c r="E157" s="12">
+        <f t="shared" si="16"/>
+        <v>607.458729372373</v>
+      </c>
+      <c r="F157" s="13">
+        <f t="shared" si="17"/>
+        <v>625.64296342353532</v>
+      </c>
+      <c r="G157" s="6">
+        <f t="shared" si="18"/>
+        <v>625.64296342353532</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="5">
+        <f t="shared" si="19"/>
+        <v>140</v>
+      </c>
+      <c r="C158" s="10">
+        <f t="shared" si="14"/>
+        <v>3417.6916426745174</v>
+      </c>
+      <c r="D158" s="6">
+        <f t="shared" si="15"/>
+        <v>634.86915956439111</v>
+      </c>
+      <c r="E158" s="12">
+        <f t="shared" si="16"/>
+        <v>625.64296342353532</v>
+      </c>
+      <c r="F158" s="13">
+        <f t="shared" si="17"/>
+        <v>644.37154123343998</v>
+      </c>
+      <c r="G158" s="6">
+        <f t="shared" si="18"/>
+        <v>644.37154123343998</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="5">
+        <f t="shared" si="19"/>
+        <v>141</v>
+      </c>
+      <c r="C159" s="10">
+        <f t="shared" si="14"/>
+        <v>3519.9999999999709</v>
+      </c>
+      <c r="D159" s="6">
+        <f t="shared" si="15"/>
+        <v>653.87392290248897</v>
+      </c>
+      <c r="E159" s="12">
+        <f t="shared" si="16"/>
+        <v>644.37154123343998</v>
+      </c>
+      <c r="F159" s="13">
+        <f t="shared" si="17"/>
+        <v>663.6607576939615</v>
+      </c>
+      <c r="G159" s="6">
+        <f t="shared" si="18"/>
+        <v>663.6607576939615</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="5">
+        <f t="shared" si="19"/>
+        <v>142</v>
+      </c>
+      <c r="C160" s="10">
+        <f t="shared" si="14"/>
+        <v>3625.3709507577687</v>
+      </c>
+      <c r="D160" s="6">
+        <f t="shared" si="15"/>
+        <v>673.44759248543403</v>
+      </c>
+      <c r="E160" s="12">
+        <f t="shared" si="16"/>
+        <v>663.6607576939615</v>
+      </c>
+      <c r="F160" s="13">
+        <f t="shared" si="17"/>
+        <v>683.52739548340855</v>
+      </c>
+      <c r="G160" s="6">
+        <f t="shared" si="18"/>
+        <v>683.52739548340855</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="5">
+        <f t="shared" si="19"/>
+        <v>143</v>
+      </c>
+      <c r="C161" s="10">
+        <f t="shared" si="14"/>
+        <v>3733.8961734654526</v>
+      </c>
+      <c r="D161" s="6">
+        <f t="shared" si="15"/>
+        <v>693.60719848138297</v>
+      </c>
+      <c r="E161" s="12">
+        <f t="shared" si="16"/>
+        <v>683.52739548340855</v>
+      </c>
+      <c r="F161" s="13">
+        <f t="shared" si="17"/>
+        <v>703.98873966837687</v>
+      </c>
+      <c r="G161" s="6">
+        <f t="shared" si="18"/>
+        <v>703.98873966837687</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="5">
+        <f t="shared" si="19"/>
+        <v>144</v>
+      </c>
+      <c r="C162" s="10">
+        <f t="shared" si="14"/>
+        <v>3845.6700910304985</v>
+      </c>
+      <c r="D162" s="6">
+        <f t="shared" si="15"/>
+        <v>714.37028085537065</v>
+      </c>
+      <c r="E162" s="12">
+        <f t="shared" si="16"/>
+        <v>703.98873966837687</v>
+      </c>
+      <c r="F162" s="13">
+        <f t="shared" si="17"/>
+        <v>725.06259274270667</v>
+      </c>
+      <c r="G162" s="6">
+        <f t="shared" si="18"/>
+        <v>725.06259274270667</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="5">
+        <f t="shared" si="19"/>
+        <v>145</v>
+      </c>
+      <c r="C163" s="10">
+        <f t="shared" si="14"/>
+        <v>3960.789952903428</v>
+      </c>
+      <c r="D163" s="6">
+        <f t="shared" si="15"/>
+        <v>735.75490463004269</v>
+      </c>
+      <c r="E163" s="12">
+        <f t="shared" si="16"/>
+        <v>725.06259274270667</v>
+      </c>
+      <c r="F163" s="13">
+        <f t="shared" si="17"/>
+        <v>746.76729011663087</v>
+      </c>
+      <c r="G163" s="6">
+        <f t="shared" si="18"/>
+        <v>746.76729011663087</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="5">
+        <f t="shared" si="19"/>
+        <v>146</v>
+      </c>
+      <c r="C164" s="10">
+        <f t="shared" si="14"/>
+        <v>4079.3559196901815</v>
+      </c>
+      <c r="D164" s="6">
+        <f t="shared" si="15"/>
+        <v>757.77967560321918</v>
+      </c>
+      <c r="E164" s="12">
+        <f t="shared" si="16"/>
+        <v>746.76729011663087</v>
+      </c>
+      <c r="F164" s="13">
+        <f t="shared" si="17"/>
+        <v>769.12171606958952</v>
+      </c>
+      <c r="G164" s="6">
+        <f t="shared" si="18"/>
+        <v>769.12171606958952</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="5">
+        <f t="shared" si="19"/>
+        <v>147</v>
+      </c>
+      <c r="C165" s="10">
+        <f t="shared" si="14"/>
+        <v>4201.4711502973423</v>
+      </c>
+      <c r="D165" s="6">
+        <f t="shared" si="15"/>
+        <v>780.46375653595987</v>
+      </c>
+      <c r="E165" s="12">
+        <f t="shared" si="16"/>
+        <v>769.12171606958952</v>
+      </c>
+      <c r="F165" s="13">
+        <f t="shared" si="17"/>
+        <v>792.14532018059026</v>
+      </c>
+      <c r="G165" s="6">
+        <f t="shared" si="18"/>
+        <v>792.14532018059026</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="5">
+        <f t="shared" si="19"/>
+        <v>148</v>
+      </c>
+      <c r="C166" s="10">
+        <f t="shared" si="14"/>
+        <v>4327.2418916860624</v>
+      </c>
+      <c r="D166" s="6">
+        <f t="shared" si="15"/>
+        <v>803.82688382522053</v>
+      </c>
+      <c r="E166" s="12">
+        <f t="shared" si="16"/>
+        <v>792.14532018059026</v>
+      </c>
+      <c r="F166" s="13">
+        <f t="shared" si="17"/>
+        <v>815.85813425041113</v>
+      </c>
+      <c r="G166" s="6">
+        <f t="shared" si="18"/>
+        <v>815.85813425041113</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="5">
+        <f t="shared" si="19"/>
+        <v>149</v>
+      </c>
+      <c r="C167" s="10">
+        <f t="shared" si="14"/>
+        <v>4456.7775713127485</v>
+      </c>
+      <c r="D167" s="6">
+        <f t="shared" si="15"/>
+        <v>827.88938467560172</v>
+      </c>
+      <c r="E167" s="12">
+        <f t="shared" si="16"/>
+        <v>815.85813425041113</v>
+      </c>
+      <c r="F167" s="13">
+        <f t="shared" si="17"/>
+        <v>840.28078973036827</v>
+      </c>
+      <c r="G167" s="6">
+        <f t="shared" si="18"/>
+        <v>840.28078973036827</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="5">
+        <f t="shared" si="19"/>
+        <v>150</v>
+      </c>
+      <c r="C168" s="10">
+        <f t="shared" si="14"/>
+        <v>4590.1908923369683</v>
+      </c>
+      <c r="D168" s="6">
+        <f t="shared" si="15"/>
+        <v>852.67219478513482</v>
+      </c>
+      <c r="E168" s="12">
+        <f t="shared" si="16"/>
+        <v>840.28078973036827</v>
+      </c>
+      <c r="F168" s="13">
+        <f t="shared" si="17"/>
+        <v>865.43453567281222</v>
+      </c>
+      <c r="G168" s="6">
+        <f t="shared" si="18"/>
+        <v>865.43453567281222</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="5">
+        <f t="shared" si="19"/>
+        <v>151</v>
+      </c>
+      <c r="C169" s="10">
+        <f t="shared" si="14"/>
+        <v>4727.5979316793937</v>
+      </c>
+      <c r="D169" s="6">
+        <f t="shared" si="15"/>
+        <v>878.19687656048961</v>
+      </c>
+      <c r="E169" s="12">
+        <f t="shared" si="16"/>
+        <v>865.43453567281222</v>
+      </c>
+      <c r="F169" s="13">
+        <f t="shared" si="17"/>
+        <v>891.34125721897078</v>
+      </c>
+      <c r="G169" s="6">
+        <f t="shared" si="18"/>
+        <v>891.34125721897078</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="5">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="C170" s="10">
+        <f t="shared" si="14"/>
+        <v>4869.1182410150914</v>
+      </c>
+      <c r="D170" s="6">
+        <f t="shared" si="15"/>
+        <v>904.48563787745195</v>
+      </c>
+      <c r="E170" s="12">
+        <f t="shared" si="16"/>
+        <v>891.34125721897078</v>
+      </c>
+      <c r="F170" s="13">
+        <f t="shared" si="17"/>
+        <v>918.02349464022473</v>
+      </c>
+      <c r="G170" s="6">
+        <f t="shared" si="18"/>
+        <v>918.02349464022473</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="5">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="C171" s="10">
+        <f t="shared" si="14"/>
+        <v>5014.8749507900629</v>
+      </c>
+      <c r="D171" s="6">
+        <f t="shared" si="15"/>
+        <v>931.56135140299762</v>
+      </c>
+      <c r="E171" s="12">
+        <f t="shared" si="16"/>
+        <v>918.02349464022473</v>
+      </c>
+      <c r="F171" s="13">
+        <f t="shared" si="17"/>
+        <v>945.5044629493832</v>
+      </c>
+      <c r="G171" s="6">
+        <f t="shared" si="18"/>
+        <v>945.5044629493832</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="5">
+        <f t="shared" si="19"/>
+        <v>154</v>
+      </c>
+      <c r="C172" s="10">
+        <f t="shared" si="14"/>
+        <v>5164.9948773514889</v>
+      </c>
+      <c r="D172" s="6">
+        <f t="shared" si="15"/>
+        <v>959.44757449576866</v>
+      </c>
+      <c r="E172" s="12">
+        <f t="shared" si="16"/>
+        <v>945.5044629493832</v>
+      </c>
+      <c r="F172" s="13">
+        <f t="shared" si="17"/>
+        <v>973.808072099019</v>
+      </c>
+      <c r="G172" s="6">
+        <f t="shared" si="18"/>
+        <v>973.808072099019</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="5">
+        <f t="shared" si="19"/>
+        <v>155</v>
+      </c>
+      <c r="C173" s="10">
+        <f t="shared" si="14"/>
+        <v>5319.6086332849218</v>
+      </c>
+      <c r="D173" s="6">
+        <f t="shared" si="15"/>
+        <v>988.16856970226934</v>
+      </c>
+      <c r="E173" s="12">
+        <f t="shared" si="16"/>
+        <v>973.808072099019</v>
+      </c>
+      <c r="F173" s="13">
+        <f t="shared" si="17"/>
+        <v>1002.9589477844431</v>
+      </c>
+      <c r="G173" s="6">
+        <f t="shared" si="18"/>
+        <v>1002.9589477844431</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="5">
+        <f t="shared" si="19"/>
+        <v>156</v>
+      </c>
+      <c r="C174" s="10">
+        <f t="shared" si="14"/>
+        <v>5478.8507410544189</v>
+      </c>
+      <c r="D174" s="6">
+        <f t="shared" si="15"/>
+        <v>1017.7493258666168</v>
+      </c>
+      <c r="E174" s="12">
+        <f t="shared" si="16"/>
+        <v>1002.9589477844431</v>
+      </c>
+      <c r="F174" s="13">
+        <f t="shared" si="17"/>
+        <v>1032.9824528694114</v>
+      </c>
+      <c r="G174" s="6">
+        <f t="shared" si="18"/>
+        <v>1032.9824528694114</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="5">
+        <f t="shared" si="19"/>
+        <v>157</v>
+      </c>
+      <c r="C175" s="10">
+        <f t="shared" si="14"/>
+        <v>5642.8597500444685</v>
+      </c>
+      <c r="D175" s="6">
+        <f t="shared" si="15"/>
+        <v>1048.215579872206</v>
+      </c>
+      <c r="E175" s="12">
+        <f t="shared" si="16"/>
+        <v>1032.9824528694114</v>
+      </c>
+      <c r="F175" s="13">
+        <f t="shared" si="17"/>
+        <v>1063.9047094532102</v>
+      </c>
+      <c r="G175" s="6">
+        <f t="shared" si="18"/>
+        <v>1063.9047094532102</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="5">
+        <f t="shared" si="19"/>
+        <v>158</v>
+      </c>
+      <c r="C176" s="10">
+        <f t="shared" si="14"/>
+        <v>5811.7783571055743</v>
+      </c>
+      <c r="D176" s="6">
+        <f t="shared" si="15"/>
+        <v>1079.5938390342146</v>
+      </c>
+      <c r="E176" s="12">
+        <f t="shared" si="16"/>
+        <v>1063.9047094532102</v>
+      </c>
+      <c r="F176" s="13">
+        <f t="shared" si="17"/>
+        <v>1095.7526215983194</v>
+      </c>
+      <c r="G176" s="6">
+        <f t="shared" si="18"/>
+        <v>1095.7526215983194</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="5">
+        <f t="shared" si="19"/>
+        <v>159</v>
+      </c>
+      <c r="C177" s="10">
+        <f t="shared" si="14"/>
+        <v>5985.7535307083626</v>
+      </c>
+      <c r="D177" s="6">
+        <f t="shared" si="15"/>
+        <v>1111.9114041624241</v>
+      </c>
+      <c r="E177" s="12">
+        <f t="shared" si="16"/>
+        <v>1095.7526215983194</v>
+      </c>
+      <c r="F177" s="13">
+        <f t="shared" si="17"/>
+        <v>1128.553898738423</v>
+      </c>
+      <c r="G177" s="6">
+        <f t="shared" si="18"/>
+        <v>1128.553898738423</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="5">
+        <f t="shared" si="19"/>
+        <v>160</v>
+      </c>
+      <c r="C178" s="10">
+        <f t="shared" si="14"/>
+        <v>6164.9366388142107</v>
+      </c>
+      <c r="D178" s="6">
+        <f t="shared" si="15"/>
+        <v>1145.196393314422</v>
+      </c>
+      <c r="E178" s="12">
+        <f t="shared" si="16"/>
+        <v>1128.553898738423</v>
+      </c>
+      <c r="F178" s="13">
+        <f t="shared" si="17"/>
+        <v>1162.3370797871412</v>
+      </c>
+      <c r="G178" s="6">
+        <f t="shared" si="18"/>
+        <v>1162.3370797871412</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="5">
+        <f t="shared" si="19"/>
+        <v>161</v>
+      </c>
+      <c r="C179" s="10">
+        <f t="shared" si="14"/>
+        <v>6349.4835805737102</v>
+      </c>
+      <c r="D179" s="6">
+        <f t="shared" si="15"/>
+        <v>1179.4777662598601</v>
+      </c>
+      <c r="E179" s="12">
+        <f t="shared" si="16"/>
+        <v>1162.3370797871412</v>
+      </c>
+      <c r="F179" s="13">
+        <f t="shared" si="17"/>
+        <v>1197.1315579684519</v>
+      </c>
+      <c r="G179" s="6">
+        <f t="shared" si="18"/>
+        <v>1197.1315579684519</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="5">
+        <f t="shared" si="19"/>
+        <v>162</v>
+      </c>
+      <c r="C180" s="10">
+        <f t="shared" si="14"/>
+        <v>6539.554921967484</v>
+      </c>
+      <c r="D180" s="6">
+        <f t="shared" si="15"/>
+        <v>1214.7853496770438</v>
+      </c>
+      <c r="E180" s="12">
+        <f t="shared" si="16"/>
+        <v>1197.1315579684519</v>
+      </c>
+      <c r="F180" s="13">
+        <f t="shared" si="17"/>
+        <v>1232.9676063904124</v>
+      </c>
+      <c r="G180" s="6">
+        <f t="shared" si="18"/>
+        <v>1232.9676063904124</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" s="5">
+        <f t="shared" si="19"/>
+        <v>163</v>
+      </c>
+      <c r="C181" s="10">
+        <f t="shared" ref="C181:C234" si="20">$B$6*POWER($B$12,B181)</f>
+        <v>6735.3160355074151</v>
+      </c>
+      <c r="D181" s="6">
+        <f t="shared" ref="D181:D234" si="21">C181/$B$14</f>
+        <v>1251.1498631037809</v>
+      </c>
+      <c r="E181" s="12">
+        <f t="shared" ref="E181:E234" si="22">F180</f>
+        <v>1232.9676063904124</v>
+      </c>
+      <c r="F181" s="13">
+        <f t="shared" ref="F181:F234" si="23">((D182-D181)/2)+D181</f>
+        <v>1269.8764043844251</v>
+      </c>
+      <c r="G181" s="6">
+        <f t="shared" ref="G181:G234" si="24">F181</f>
+        <v>1269.8764043844251</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" s="5">
+        <f t="shared" si="19"/>
+        <v>164</v>
+      </c>
+      <c r="C182" s="10">
+        <f t="shared" si="20"/>
+        <v>6936.9372441198184</v>
+      </c>
+      <c r="D182" s="6">
+        <f t="shared" si="21"/>
+        <v>1288.6029456650692</v>
+      </c>
+      <c r="E182" s="12">
+        <f t="shared" si="22"/>
+        <v>1269.8764043844251</v>
+      </c>
+      <c r="F182" s="13">
+        <f t="shared" si="23"/>
+        <v>1307.890064632971</v>
+      </c>
+      <c r="G182" s="6">
+        <f t="shared" si="24"/>
+        <v>1307.890064632971</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="5">
+        <f t="shared" si="19"/>
+        <v>165</v>
+      </c>
+      <c r="C183" s="10">
+        <f t="shared" si="20"/>
+        <v>7144.5939693357532</v>
+      </c>
+      <c r="D183" s="6">
+        <f t="shared" si="21"/>
+        <v>1327.1771836008727</v>
+      </c>
+      <c r="E183" s="12">
+        <f t="shared" si="22"/>
+        <v>1307.890064632971</v>
+      </c>
+      <c r="F183" s="13">
+        <f t="shared" si="23"/>
+        <v>1347.041661109407</v>
+      </c>
+      <c r="G183" s="6">
+        <f t="shared" si="24"/>
+        <v>1347.041661109407</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="5">
+        <f t="shared" si="19"/>
+        <v>166</v>
+      </c>
+      <c r="C184" s="10">
+        <f t="shared" si="20"/>
+        <v>7358.4668839173837</v>
+      </c>
+      <c r="D184" s="6">
+        <f t="shared" si="21"/>
+        <v>1366.9061386179412</v>
+      </c>
+      <c r="E184" s="12">
+        <f t="shared" si="22"/>
+        <v>1347.041661109407</v>
+      </c>
+      <c r="F184" s="13">
+        <f t="shared" si="23"/>
+        <v>1387.3652578541405</v>
+      </c>
+      <c r="G184" s="6">
+        <f t="shared" si="24"/>
+        <v>1387.3652578541405</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="5">
+        <f t="shared" si="19"/>
+        <v>167</v>
+      </c>
+      <c r="C185" s="10">
+        <f t="shared" si="20"/>
+        <v>7578.7420690532217</v>
+      </c>
+      <c r="D185" s="6">
+        <f t="shared" si="21"/>
+        <v>1407.82437709034</v>
+      </c>
+      <c r="E185" s="12">
+        <f t="shared" si="22"/>
+        <v>1387.3652578541405</v>
+      </c>
+      <c r="F185" s="13">
+        <f t="shared" si="23"/>
+        <v>1428.8959386122172</v>
+      </c>
+      <c r="G185" s="6">
+        <f t="shared" si="24"/>
+        <v>1428.8959386122172</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="5">
+        <f t="shared" si="19"/>
+        <v>168</v>
+      </c>
+      <c r="C186" s="10">
+        <f t="shared" si="20"/>
+        <v>7805.611176258979</v>
+      </c>
+      <c r="D186" s="6">
+        <f t="shared" si="21"/>
+        <v>1449.9675001340943</v>
+      </c>
+      <c r="E186" s="12">
+        <f t="shared" si="22"/>
+        <v>1428.8959386122172</v>
+      </c>
+      <c r="F186" s="13">
+        <f t="shared" si="23"/>
+        <v>1471.6698373581053</v>
+      </c>
+      <c r="G186" s="6">
+        <f t="shared" si="24"/>
+        <v>1471.6698373581053</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" s="5">
+        <f t="shared" si="19"/>
+        <v>169</v>
+      </c>
+      <c r="C187" s="10">
+        <f t="shared" si="20"/>
+        <v>8039.2715941249171</v>
+      </c>
+      <c r="D187" s="6">
+        <f t="shared" si="21"/>
+        <v>1493.372174582116</v>
+      </c>
+      <c r="E187" s="12">
+        <f t="shared" si="22"/>
+        <v>1471.6698373581053</v>
+      </c>
+      <c r="F187" s="13">
+        <f t="shared" si="23"/>
+        <v>1515.7241697342411</v>
+      </c>
+      <c r="G187" s="6">
+        <f t="shared" si="24"/>
+        <v>1515.7241697342411</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188" s="5">
+        <f t="shared" si="19"/>
+        <v>170</v>
+      </c>
+      <c r="C188" s="10">
+        <f t="shared" si="20"/>
+        <v>8279.9266200547772</v>
+      </c>
+      <c r="D188" s="6">
+        <f t="shared" si="21"/>
+        <v>1538.0761648863659</v>
+      </c>
+      <c r="E188" s="12">
+        <f t="shared" si="22"/>
+        <v>1515.7241697342411</v>
+      </c>
+      <c r="F188" s="13">
+        <f t="shared" si="23"/>
+        <v>1561.097265430682</v>
+      </c>
+      <c r="G188" s="6">
+        <f t="shared" si="24"/>
+        <v>1561.097265430682</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189" s="5">
+        <f t="shared" si="19"/>
+        <v>171</v>
+      </c>
+      <c r="C189" s="10">
+        <f t="shared" si="20"/>
+        <v>8527.7856371456801</v>
+      </c>
+      <c r="D189" s="6">
+        <f t="shared" si="21"/>
+        <v>1584.1183659749979</v>
+      </c>
+      <c r="E189" s="12">
+        <f t="shared" si="22"/>
+        <v>1561.097265430682</v>
+      </c>
+      <c r="F189" s="13">
+        <f t="shared" si="23"/>
+        <v>1607.8286015340427</v>
+      </c>
+      <c r="G189" s="6">
+        <f t="shared" si="24"/>
+        <v>1607.8286015340427</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B190" s="5">
+        <f t="shared" si="19"/>
+        <v>172</v>
+      </c>
+      <c r="C190" s="10">
+        <f t="shared" si="20"/>
+        <v>8783.0642963629343</v>
+      </c>
+      <c r="D190" s="6">
+        <f t="shared" si="21"/>
+        <v>1631.5388370930875</v>
+      </c>
+      <c r="E190" s="12">
+        <f t="shared" si="22"/>
+        <v>1607.8286015340427</v>
+      </c>
+      <c r="F190" s="13">
+        <f t="shared" si="23"/>
+        <v>1655.9588368747313</v>
+      </c>
+      <c r="G190" s="6">
+        <f t="shared" si="24"/>
+        <v>1655.9588368747313</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191" s="5">
+        <f t="shared" si="19"/>
+        <v>173</v>
+      </c>
+      <c r="C191" s="10">
+        <f t="shared" si="20"/>
+        <v>9045.9847041682315</v>
+      </c>
+      <c r="D191" s="6">
+        <f t="shared" si="21"/>
+        <v>1680.3788366563754</v>
+      </c>
+      <c r="E191" s="12">
+        <f t="shared" si="22"/>
+        <v>1655.9588368747313</v>
+      </c>
+      <c r="F191" s="13">
+        <f t="shared" si="23"/>
+        <v>1705.5298474023648</v>
+      </c>
+      <c r="G191" s="6">
+        <f t="shared" si="24"/>
+        <v>1705.5298474023648</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" s="5">
+        <f t="shared" si="19"/>
+        <v>174</v>
+      </c>
+      <c r="C192" s="10">
+        <f t="shared" si="20"/>
+        <v>9316.7756157644544</v>
+      </c>
+      <c r="D192" s="6">
+        <f t="shared" si="21"/>
+        <v>1730.680858148354</v>
+      </c>
+      <c r="E192" s="12">
+        <f t="shared" si="22"/>
+        <v>1705.5298474023648</v>
+      </c>
+      <c r="F192" s="13">
+        <f t="shared" si="23"/>
+        <v>1756.5847626201457</v>
+      </c>
+      <c r="G192" s="6">
+        <f t="shared" si="24"/>
+        <v>1756.5847626201457</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="5">
+        <f t="shared" si="19"/>
+        <v>175</v>
+      </c>
+      <c r="C193" s="10">
+        <f t="shared" si="20"/>
+        <v>9595.6726341252997</v>
+      </c>
+      <c r="D193" s="6">
+        <f t="shared" si="21"/>
+        <v>1782.4886670919377</v>
+      </c>
+      <c r="E193" s="12">
+        <f t="shared" si="22"/>
+        <v>1756.5847626201457</v>
+      </c>
+      <c r="F193" s="13">
+        <f t="shared" si="23"/>
+        <v>1809.1680031099033</v>
+      </c>
+      <c r="G193" s="6">
+        <f t="shared" si="24"/>
+        <v>1809.1680031099033</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="5">
+        <f t="shared" si="19"/>
+        <v>176</v>
+      </c>
+      <c r="C194" s="10">
+        <f t="shared" si="20"/>
+        <v>9882.9184149827906</v>
+      </c>
+      <c r="D194" s="6">
+        <f t="shared" si="21"/>
+        <v>1835.847339127869</v>
+      </c>
+      <c r="E194" s="12">
+        <f t="shared" si="22"/>
+        <v>1809.1680031099033</v>
+      </c>
+      <c r="F194" s="13">
+        <f t="shared" si="23"/>
+        <v>1863.3253191804367</v>
+      </c>
+      <c r="G194" s="6">
+        <f t="shared" si="24"/>
+        <v>1863.3253191804367</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="5">
+        <f t="shared" si="19"/>
+        <v>177</v>
+      </c>
+      <c r="C195" s="10">
+        <f t="shared" si="20"/>
+        <v>10178.762877951111</v>
+      </c>
+      <c r="D195" s="6">
+        <f t="shared" si="21"/>
+        <v>1890.8032992330045</v>
+      </c>
+      <c r="E195" s="12">
+        <f t="shared" si="22"/>
+        <v>1863.3253191804367</v>
+      </c>
+      <c r="F195" s="13">
+        <f t="shared" si="23"/>
+        <v>1919.1038306728005</v>
+      </c>
+      <c r="G195" s="6">
+        <f t="shared" si="24"/>
+        <v>1919.1038306728005</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="5">
+        <f t="shared" si="19"/>
+        <v>178</v>
+      </c>
+      <c r="C196" s="10">
+        <f t="shared" si="20"/>
+        <v>10483.463423970399</v>
+      </c>
+      <c r="D196" s="6">
+        <f t="shared" si="21"/>
+        <v>1947.4043621125966</v>
+      </c>
+      <c r="E196" s="12">
+        <f t="shared" si="22"/>
+        <v>1919.1038306728005</v>
+      </c>
+      <c r="F196" s="13">
+        <f t="shared" si="23"/>
+        <v>1976.5520679571546</v>
+      </c>
+      <c r="G196" s="6">
+        <f t="shared" si="24"/>
+        <v>1976.5520679571546</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="5">
+        <f t="shared" si="19"/>
+        <v>179</v>
+      </c>
+      <c r="C197" s="10">
+        <f t="shared" si="20"/>
+        <v>10797.285159259709</v>
+      </c>
+      <c r="D197" s="6">
+        <f t="shared" si="21"/>
+        <v>2005.6997738017128</v>
+      </c>
+      <c r="E197" s="12">
+        <f t="shared" si="22"/>
+        <v>1976.5520679571546</v>
+      </c>
+      <c r="F197" s="13">
+        <f t="shared" si="23"/>
+        <v>2035.7200141568533</v>
+      </c>
+      <c r="G197" s="6">
+        <f t="shared" si="24"/>
+        <v>2035.7200141568533</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="5">
+        <f t="shared" si="19"/>
+        <v>180</v>
+      </c>
+      <c r="C198" s="10">
+        <f t="shared" si="20"/>
+        <v>11120.501125973988</v>
+      </c>
+      <c r="D198" s="6">
+        <f t="shared" si="21"/>
+        <v>2065.7402545119935</v>
+      </c>
+      <c r="E198" s="12">
+        <f t="shared" si="22"/>
+        <v>2035.7200141568533</v>
+      </c>
+      <c r="F198" s="13">
+        <f t="shared" si="23"/>
+        <v>2096.6591486365087</v>
+      </c>
+      <c r="G198" s="6">
+        <f t="shared" si="24"/>
+        <v>2096.6591486365087</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="5">
+        <f t="shared" si="19"/>
+        <v>181</v>
+      </c>
+      <c r="C199" s="10">
+        <f t="shared" si="20"/>
+        <v>11453.392539765766</v>
+      </c>
+      <c r="D199" s="6">
+        <f t="shared" si="21"/>
+        <v>2127.5780427610239</v>
+      </c>
+      <c r="E199" s="12">
+        <f t="shared" si="22"/>
+        <v>2096.6591486365087</v>
+      </c>
+      <c r="F199" s="13">
+        <f t="shared" si="23"/>
+        <v>2159.4224917918682</v>
+      </c>
+      <c r="G199" s="6">
+        <f t="shared" si="24"/>
+        <v>2159.4224917918682</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" s="5">
+        <f t="shared" si="19"/>
+        <v>182</v>
+      </c>
+      <c r="C200" s="10">
+        <f t="shared" si="20"/>
+        <v>11796.249034458206</v>
+      </c>
+      <c r="D200" s="6">
+        <f t="shared" si="21"/>
+        <v>2191.2669408227125</v>
+      </c>
+      <c r="E200" s="12">
+        <f t="shared" si="22"/>
+        <v>2159.4224917918682</v>
+      </c>
+      <c r="F200" s="13">
+        <f t="shared" si="23"/>
+        <v>2224.0646511804716</v>
+      </c>
+      <c r="G200" s="6">
+        <f t="shared" si="24"/>
+        <v>2224.0646511804716</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="5">
+        <f t="shared" si="19"/>
+        <v>183</v>
+      </c>
+      <c r="C201" s="10">
+        <f t="shared" si="20"/>
+        <v>12149.368914042474</v>
+      </c>
+      <c r="D201" s="6">
+        <f t="shared" si="21"/>
+        <v>2256.8623615382303</v>
+      </c>
+      <c r="E201" s="12">
+        <f t="shared" si="22"/>
+        <v>2224.0646511804716</v>
+      </c>
+      <c r="F201" s="13">
+        <f t="shared" si="23"/>
+        <v>2290.6418690332266</v>
+      </c>
+      <c r="G201" s="6">
+        <f t="shared" si="24"/>
+        <v>2290.6418690332266</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" s="5">
+        <f t="shared" si="19"/>
+        <v>184</v>
+      </c>
+      <c r="C202" s="10">
+        <f t="shared" si="20"/>
+        <v>12513.059412218583</v>
+      </c>
+      <c r="D202" s="6">
+        <f t="shared" si="21"/>
+        <v>2324.4213765282229</v>
+      </c>
+      <c r="E202" s="12">
+        <f t="shared" si="22"/>
+        <v>2290.6418690332266</v>
+      </c>
+      <c r="F202" s="13">
+        <f t="shared" si="23"/>
+        <v>2359.2120711882408</v>
+      </c>
+      <c r="G202" s="6">
+        <f t="shared" si="24"/>
+        <v>2359.2120711882408</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" s="5">
+        <f t="shared" si="19"/>
+        <v>185</v>
+      </c>
+      <c r="C203" s="10">
+        <f t="shared" si="20"/>
+        <v>12887.636959705595</v>
+      </c>
+      <c r="D203" s="6">
+        <f t="shared" si="21"/>
+        <v>2394.0027658482591</v>
+      </c>
+      <c r="E203" s="12">
+        <f t="shared" si="22"/>
+        <v>2359.2120711882408</v>
+      </c>
+      <c r="F203" s="13">
+        <f t="shared" si="23"/>
+        <v>2429.8349174894852</v>
+      </c>
+      <c r="G203" s="6">
+        <f t="shared" si="24"/>
+        <v>2429.8349174894852</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="5">
+        <f t="shared" si="19"/>
+        <v>186</v>
+      </c>
+      <c r="C204" s="10">
+        <f t="shared" si="20"/>
+        <v>13273.427459553755</v>
+      </c>
+      <c r="D204" s="6">
+        <f t="shared" si="21"/>
+        <v>2465.6670691307113</v>
+      </c>
+      <c r="E204" s="12">
+        <f t="shared" si="22"/>
+        <v>2429.8349174894852</v>
+      </c>
+      <c r="F204" s="13">
+        <f t="shared" si="23"/>
+        <v>2502.571853694134</v>
+      </c>
+      <c r="G204" s="6">
+        <f t="shared" si="24"/>
+        <v>2502.571853694134</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" s="5">
+        <f t="shared" si="19"/>
+        <v>187</v>
+      </c>
+      <c r="C205" s="10">
+        <f t="shared" si="20"/>
+        <v>13670.76657069803</v>
+      </c>
+      <c r="D205" s="6">
+        <f t="shared" si="21"/>
+        <v>2539.4766382575567</v>
+      </c>
+      <c r="E205" s="12">
+        <f t="shared" si="22"/>
+        <v>2502.571853694134</v>
+      </c>
+      <c r="F205" s="13">
+        <f t="shared" si="23"/>
+        <v>2577.4861649337527</v>
+      </c>
+      <c r="G205" s="6">
+        <f t="shared" si="24"/>
+        <v>2577.4861649337527</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206" s="5">
+        <f t="shared" si="19"/>
+        <v>188</v>
+      </c>
+      <c r="C206" s="10">
+        <f t="shared" si="20"/>
+        <v>14079.999999999844</v>
+      </c>
+      <c r="D206" s="6">
+        <f t="shared" si="21"/>
+        <v>2615.4956916099482</v>
+      </c>
+      <c r="E206" s="12">
+        <f t="shared" si="22"/>
+        <v>2577.4861649337527</v>
+      </c>
+      <c r="F206" s="13">
+        <f t="shared" si="23"/>
+        <v>2654.6430307758383</v>
+      </c>
+      <c r="G206" s="6">
+        <f t="shared" si="24"/>
+        <v>2654.6430307758383</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="5">
+        <f t="shared" si="19"/>
+        <v>189</v>
+      </c>
+      <c r="C207" s="10">
+        <f t="shared" si="20"/>
+        <v>14501.483803031035</v>
+      </c>
+      <c r="D207" s="6">
+        <f t="shared" si="21"/>
+        <v>2693.7903699417288</v>
+      </c>
+      <c r="E207" s="12">
+        <f t="shared" si="22"/>
+        <v>2654.6430307758383</v>
+      </c>
+      <c r="F207" s="13">
+        <f t="shared" si="23"/>
+        <v>2734.1095819336269</v>
+      </c>
+      <c r="G207" s="6">
+        <f t="shared" si="24"/>
+        <v>2734.1095819336269</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="5">
+        <f t="shared" si="19"/>
+        <v>190</v>
+      </c>
+      <c r="C208" s="10">
+        <f t="shared" si="20"/>
+        <v>14935.584693861771</v>
+      </c>
+      <c r="D208" s="6">
+        <f t="shared" si="21"/>
+        <v>2774.4287939255246</v>
+      </c>
+      <c r="E208" s="12">
+        <f t="shared" si="22"/>
+        <v>2734.1095819336269</v>
+      </c>
+      <c r="F208" s="13">
+        <f t="shared" si="23"/>
+        <v>2815.9549586734997</v>
+      </c>
+      <c r="G208" s="6">
+        <f t="shared" si="24"/>
+        <v>2815.9549586734997</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B209" s="5">
+        <f t="shared" si="19"/>
+        <v>191</v>
+      </c>
+      <c r="C209" s="10">
+        <f t="shared" si="20"/>
+        <v>15382.680364121954</v>
+      </c>
+      <c r="D209" s="6">
+        <f t="shared" si="21"/>
+        <v>2857.4811234214749</v>
+      </c>
+      <c r="E209" s="12">
+        <f t="shared" si="22"/>
+        <v>2815.9549586734997</v>
+      </c>
+      <c r="F209" s="13">
+        <f t="shared" si="23"/>
+        <v>2900.2503709708189</v>
+      </c>
+      <c r="G209" s="6">
+        <f t="shared" si="24"/>
+        <v>2900.2503709708189</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B210" s="5">
+        <f t="shared" si="19"/>
+        <v>192</v>
+      </c>
+      <c r="C210" s="10">
+        <f t="shared" si="20"/>
+        <v>15843.159811613668</v>
+      </c>
+      <c r="D210" s="6">
+        <f t="shared" si="21"/>
+        <v>2943.0196185201626</v>
+      </c>
+      <c r="E210" s="12">
+        <f t="shared" si="22"/>
+        <v>2900.2503709708189</v>
+      </c>
+      <c r="F210" s="13">
+        <f t="shared" si="23"/>
+        <v>2987.0691604665153</v>
+      </c>
+      <c r="G210" s="6">
+        <f t="shared" si="24"/>
+        <v>2987.0691604665153</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B211" s="5">
+        <f t="shared" si="19"/>
+        <v>193</v>
+      </c>
+      <c r="C211" s="10">
+        <f t="shared" si="20"/>
+        <v>16317.423678760682</v>
+      </c>
+      <c r="D211" s="6">
+        <f t="shared" si="21"/>
+        <v>3031.1187024128685</v>
+      </c>
+      <c r="E211" s="12">
+        <f t="shared" si="22"/>
+        <v>2987.0691604665153</v>
+      </c>
+      <c r="F211" s="13">
+        <f t="shared" si="23"/>
+        <v>3076.4868642783495</v>
+      </c>
+      <c r="G211" s="6">
+        <f t="shared" si="24"/>
+        <v>3076.4868642783495</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B212" s="5">
+        <f t="shared" ref="B212:B234" si="25">B211+1</f>
+        <v>194</v>
+      </c>
+      <c r="C212" s="10">
+        <f t="shared" si="20"/>
+        <v>16805.884601189322</v>
+      </c>
+      <c r="D212" s="6">
+        <f t="shared" si="21"/>
+        <v>3121.8550261438304</v>
+      </c>
+      <c r="E212" s="12">
+        <f t="shared" si="22"/>
+        <v>3076.4868642783495</v>
+      </c>
+      <c r="F212" s="13">
+        <f t="shared" si="23"/>
+        <v>3168.5812807223519</v>
+      </c>
+      <c r="G212" s="6">
+        <f t="shared" si="24"/>
+        <v>3168.5812807223519</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B213" s="5">
+        <f t="shared" si="25"/>
+        <v>195</v>
+      </c>
+      <c r="C213" s="10">
+        <f t="shared" si="20"/>
+        <v>17308.967566744202</v>
+      </c>
+      <c r="D213" s="6">
+        <f t="shared" si="21"/>
+        <v>3215.307535300873</v>
+      </c>
+      <c r="E213" s="12">
+        <f t="shared" si="22"/>
+        <v>3168.5812807223519</v>
+      </c>
+      <c r="F213" s="13">
+        <f t="shared" si="23"/>
+        <v>3263.432537001635</v>
+      </c>
+      <c r="G213" s="6">
+        <f t="shared" si="24"/>
+        <v>3263.432537001635</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B214" s="5">
+        <f t="shared" si="25"/>
+        <v>196</v>
+      </c>
+      <c r="C214" s="10">
+        <f t="shared" si="20"/>
+        <v>17827.110285250943</v>
+      </c>
+      <c r="D214" s="6">
+        <f t="shared" si="21"/>
+        <v>3311.5575387023973</v>
+      </c>
+      <c r="E214" s="12">
+        <f t="shared" si="22"/>
+        <v>3263.432537001635</v>
+      </c>
+      <c r="F214" s="13">
+        <f t="shared" si="23"/>
+        <v>3361.123158921464</v>
+      </c>
+      <c r="G214" s="6">
+        <f t="shared" si="24"/>
+        <v>3361.123158921464</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B215" s="5">
+        <f t="shared" si="25"/>
+        <v>197</v>
+      </c>
+      <c r="C215" s="10">
+        <f t="shared" si="20"/>
+        <v>18360.763569347826</v>
+      </c>
+      <c r="D215" s="6">
+        <f t="shared" si="21"/>
+        <v>3410.6887791405302</v>
+      </c>
+      <c r="E215" s="12">
+        <f t="shared" si="22"/>
+        <v>3361.123158921464</v>
+      </c>
+      <c r="F215" s="13">
+        <f t="shared" si="23"/>
+        <v>3461.7381426912393</v>
+      </c>
+      <c r="G215" s="6">
+        <f t="shared" si="24"/>
+        <v>3461.7381426912393</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B216" s="5">
+        <f t="shared" si="25"/>
+        <v>198</v>
+      </c>
+      <c r="C216" s="10">
+        <f t="shared" si="20"/>
+        <v>18910.39172671752</v>
+      </c>
+      <c r="D216" s="6">
+        <f t="shared" si="21"/>
+        <v>3512.7875062419484</v>
+      </c>
+      <c r="E216" s="12">
+        <f t="shared" si="22"/>
+        <v>3461.7381426912393</v>
+      </c>
+      <c r="F216" s="13">
+        <f t="shared" si="23"/>
+        <v>3565.3650288758727</v>
+      </c>
+      <c r="G216" s="6">
+        <f t="shared" si="24"/>
+        <v>3565.3650288758727</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B217" s="5">
+        <f t="shared" si="25"/>
+        <v>199</v>
+      </c>
+      <c r="C217" s="10">
+        <f t="shared" si="20"/>
+        <v>19476.472964060311</v>
+      </c>
+      <c r="D217" s="6">
+        <f t="shared" si="21"/>
+        <v>3617.9425515097973</v>
+      </c>
+      <c r="E217" s="12">
+        <f t="shared" si="22"/>
+        <v>3565.3650288758727</v>
+      </c>
+      <c r="F217" s="13">
+        <f t="shared" si="23"/>
+        <v>3672.0939785608889</v>
+      </c>
+      <c r="G217" s="6">
+        <f t="shared" si="24"/>
+        <v>3672.0939785608889</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B218" s="5">
+        <f t="shared" si="25"/>
+        <v>200</v>
+      </c>
+      <c r="C218" s="10">
+        <f t="shared" si="20"/>
+        <v>20059.499803160197</v>
+      </c>
+      <c r="D218" s="6">
+        <f t="shared" si="21"/>
+        <v>3726.2454056119805</v>
+      </c>
+      <c r="E218" s="12">
+        <f t="shared" si="22"/>
+        <v>3672.0939785608889</v>
+      </c>
+      <c r="F218" s="13">
+        <f t="shared" si="23"/>
+        <v>3782.0178517975219</v>
+      </c>
+      <c r="G218" s="6">
+        <f t="shared" si="24"/>
+        <v>3782.0178517975219</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B219" s="5">
+        <f t="shared" si="25"/>
+        <v>201</v>
+      </c>
+      <c r="C219" s="10">
+        <f t="shared" si="20"/>
+        <v>20659.979509405897</v>
+      </c>
+      <c r="D219" s="6">
+        <f t="shared" si="21"/>
+        <v>3837.7902979830637</v>
+      </c>
+      <c r="E219" s="12">
+        <f t="shared" si="22"/>
+        <v>3782.0178517975219</v>
+      </c>
+      <c r="F219" s="13">
+        <f t="shared" si="23"/>
+        <v>3895.2322883960651</v>
+      </c>
+      <c r="G219" s="6">
+        <f t="shared" si="24"/>
+        <v>3895.2322883960651</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B220" s="5">
+        <f t="shared" si="25"/>
+        <v>202</v>
+      </c>
+      <c r="C220" s="10">
+        <f t="shared" si="20"/>
+        <v>21278.434533139629</v>
+      </c>
+      <c r="D220" s="6">
+        <f t="shared" si="21"/>
+        <v>3952.6742788090669</v>
+      </c>
+      <c r="E220" s="12">
+        <f t="shared" si="22"/>
+        <v>3895.2322883960651</v>
+      </c>
+      <c r="F220" s="13">
+        <f t="shared" si="23"/>
+        <v>4011.8357911377607</v>
+      </c>
+      <c r="G220" s="6">
+        <f t="shared" si="24"/>
+        <v>4011.8357911377607</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B221" s="5">
+        <f t="shared" si="25"/>
+        <v>203</v>
+      </c>
+      <c r="C221" s="10">
+        <f t="shared" si="20"/>
+        <v>21915.40296421761</v>
+      </c>
+      <c r="D221" s="6">
+        <f t="shared" si="21"/>
+        <v>4070.9973034664549</v>
+      </c>
+      <c r="E221" s="12">
+        <f t="shared" si="22"/>
+        <v>4011.8357911377607</v>
+      </c>
+      <c r="F221" s="13">
+        <f t="shared" si="23"/>
+        <v>4131.9298114776329</v>
+      </c>
+      <c r="G221" s="6">
+        <f t="shared" si="24"/>
+        <v>4131.9298114776329</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B222" s="5">
+        <f t="shared" si="25"/>
+        <v>204</v>
+      </c>
+      <c r="C222" s="10">
+        <f t="shared" si="20"/>
+        <v>22571.439000177805</v>
+      </c>
+      <c r="D222" s="6">
+        <f t="shared" si="21"/>
+        <v>4192.8623194888114</v>
+      </c>
+      <c r="E222" s="12">
+        <f t="shared" si="22"/>
+        <v>4131.9298114776329</v>
+      </c>
+      <c r="F222" s="13">
+        <f t="shared" si="23"/>
+        <v>4255.61883781283</v>
+      </c>
+      <c r="G222" s="6">
+        <f t="shared" si="24"/>
+        <v>4255.61883781283</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B223" s="5">
+        <f t="shared" si="25"/>
+        <v>205</v>
+      </c>
+      <c r="C223" s="10">
+        <f t="shared" si="20"/>
+        <v>23247.113428422239</v>
+      </c>
+      <c r="D223" s="6">
+        <f t="shared" si="21"/>
+        <v>4318.3753561368476</v>
+      </c>
+      <c r="E223" s="12">
+        <f t="shared" si="22"/>
+        <v>4255.61883781283</v>
+      </c>
+      <c r="F223" s="13">
+        <f t="shared" si="23"/>
+        <v>4383.0104863932656</v>
+      </c>
+      <c r="G223" s="6">
+        <f t="shared" si="24"/>
+        <v>4383.0104863932656</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B224" s="5">
+        <f t="shared" si="25"/>
+        <v>206</v>
+      </c>
+      <c r="C224" s="10">
+        <f t="shared" si="20"/>
+        <v>23943.014122833381</v>
+      </c>
+      <c r="D224" s="6">
+        <f t="shared" si="21"/>
+        <v>4447.6456166496837</v>
+      </c>
+      <c r="E224" s="12">
+        <f t="shared" si="22"/>
+        <v>4383.0104863932656</v>
+      </c>
+      <c r="F224" s="13">
+        <f t="shared" si="23"/>
+        <v>4514.2155949536791</v>
+      </c>
+      <c r="G224" s="6">
+        <f t="shared" si="24"/>
+        <v>4514.2155949536791</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B225" s="5">
+        <f t="shared" si="25"/>
+        <v>207</v>
+      </c>
+      <c r="C225" s="10">
+        <f t="shared" si="20"/>
+        <v>24659.746555256774</v>
+      </c>
+      <c r="D225" s="6">
+        <f t="shared" si="21"/>
+        <v>4580.7855732576754</v>
+      </c>
+      <c r="E225" s="12">
+        <f t="shared" si="22"/>
+        <v>4514.2155949536791</v>
+      </c>
+      <c r="F225" s="13">
+        <f t="shared" si="23"/>
+        <v>4649.348319148552</v>
+      </c>
+      <c r="G225" s="6">
+        <f t="shared" si="24"/>
+        <v>4649.348319148552</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B226" s="5">
+        <f t="shared" si="25"/>
+        <v>208</v>
+      </c>
+      <c r="C226" s="10">
+        <f t="shared" si="20"/>
+        <v>25397.934322294775</v>
+      </c>
+      <c r="D226" s="6">
+        <f t="shared" si="21"/>
+        <v>4717.9110650394286</v>
+      </c>
+      <c r="E226" s="12">
+        <f t="shared" si="22"/>
+        <v>4649.348319148552</v>
+      </c>
+      <c r="F226" s="13">
+        <f t="shared" si="23"/>
+        <v>4788.526231873795</v>
+      </c>
+      <c r="G226" s="6">
+        <f t="shared" si="24"/>
+        <v>4788.526231873795</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B227" s="5">
+        <f t="shared" si="25"/>
+        <v>209</v>
+      </c>
+      <c r="C227" s="10">
+        <f t="shared" si="20"/>
+        <v>26158.219687869863</v>
+      </c>
+      <c r="D227" s="6">
+        <f t="shared" si="21"/>
+        <v>4859.1413987081614</v>
+      </c>
+      <c r="E227" s="12">
+        <f t="shared" si="22"/>
+        <v>4788.526231873795</v>
+      </c>
+      <c r="F227" s="13">
+        <f t="shared" si="23"/>
+        <v>4931.8704255616358</v>
+      </c>
+      <c r="G227" s="6">
+        <f t="shared" si="24"/>
+        <v>4931.8704255616358</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B228" s="5">
+        <f t="shared" si="25"/>
+        <v>210</v>
+      </c>
+      <c r="C228" s="10">
+        <f t="shared" si="20"/>
+        <v>26941.264142029584</v>
+      </c>
+      <c r="D228" s="6">
+        <f t="shared" si="21"/>
+        <v>5004.5994524151101</v>
+      </c>
+      <c r="E228" s="12">
+        <f t="shared" si="22"/>
+        <v>4931.8704255616358</v>
+      </c>
+      <c r="F228" s="13">
+        <f t="shared" si="23"/>
+        <v>5079.5056175376867</v>
+      </c>
+      <c r="G228" s="6">
+        <f t="shared" si="24"/>
+        <v>5079.5056175376867</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B229" s="5">
+        <f t="shared" si="25"/>
+        <v>211</v>
+      </c>
+      <c r="C229" s="10">
+        <f t="shared" si="20"/>
+        <v>27747.748976479197</v>
+      </c>
+      <c r="D229" s="6">
+        <f t="shared" si="21"/>
+        <v>5154.4117826602624</v>
+      </c>
+      <c r="E229" s="12">
+        <f t="shared" si="22"/>
+        <v>5079.5056175376867</v>
+      </c>
+      <c r="F229" s="13">
+        <f t="shared" si="23"/>
+        <v>5231.5602585318693</v>
+      </c>
+      <c r="G229" s="6">
+        <f t="shared" si="24"/>
+        <v>5231.5602585318693</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B230" s="5">
+        <f t="shared" si="25"/>
+        <v>212</v>
+      </c>
+      <c r="C230" s="10">
+        <f t="shared" si="20"/>
+        <v>28578.375877342933</v>
+      </c>
+      <c r="D230" s="6">
+        <f t="shared" si="21"/>
+        <v>5308.7087344034762</v>
+      </c>
+      <c r="E230" s="12">
+        <f t="shared" si="22"/>
+        <v>5231.5602585318693</v>
+      </c>
+      <c r="F230" s="13">
+        <f t="shared" si="23"/>
+        <v>5388.1666444376133</v>
+      </c>
+      <c r="G230" s="6">
+        <f t="shared" si="24"/>
+        <v>5388.1666444376133</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B231" s="5">
+        <f t="shared" si="25"/>
+        <v>213</v>
+      </c>
+      <c r="C231" s="10">
+        <f t="shared" si="20"/>
+        <v>29433.867535669455</v>
+      </c>
+      <c r="D231" s="6">
+        <f t="shared" si="21"/>
+        <v>5467.6245544717503</v>
+      </c>
+      <c r="E231" s="12">
+        <f t="shared" si="22"/>
+        <v>5388.1666444376133</v>
+      </c>
+      <c r="F231" s="13">
+        <f t="shared" si="23"/>
+        <v>5549.4610314165475</v>
+      </c>
+      <c r="G231" s="6">
+        <f t="shared" si="24"/>
+        <v>5549.4610314165475</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B232" s="5">
+        <f t="shared" si="25"/>
+        <v>214</v>
+      </c>
+      <c r="C232" s="10">
+        <f t="shared" si="20"/>
+        <v>30314.968276212807</v>
+      </c>
+      <c r="D232" s="6">
+        <f t="shared" si="21"/>
+        <v>5631.2975083613446</v>
+      </c>
+      <c r="E232" s="12">
+        <f t="shared" si="22"/>
+        <v>5549.4610314165475</v>
+      </c>
+      <c r="F232" s="13">
+        <f t="shared" si="23"/>
+        <v>5715.5837544488531</v>
+      </c>
+      <c r="G232" s="6">
+        <f t="shared" si="24"/>
+        <v>5715.5837544488531</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B233" s="5">
+        <f t="shared" si="25"/>
+        <v>215</v>
+      </c>
+      <c r="C233" s="10">
+        <f t="shared" si="20"/>
+        <v>31222.444705035829</v>
+      </c>
+      <c r="D233" s="6">
+        <f t="shared" si="21"/>
+        <v>5799.8700005363607</v>
+      </c>
+      <c r="E233" s="12">
+        <f t="shared" si="22"/>
+        <v>5715.5837544488531</v>
+      </c>
+      <c r="F233" s="13">
+        <f t="shared" si="23"/>
+        <v>5886.6793494324047</v>
+      </c>
+      <c r="G233" s="6">
+        <f t="shared" si="24"/>
+        <v>5886.6793494324047</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B234" s="5">
+        <f t="shared" si="25"/>
+        <v>216</v>
+      </c>
+      <c r="C234" s="10">
+        <f t="shared" si="20"/>
+        <v>32157.086376499581</v>
+      </c>
+      <c r="D234" s="6">
+        <f t="shared" si="21"/>
+        <v>5973.4886983284487</v>
+      </c>
+      <c r="E234" s="12">
+        <f t="shared" si="22"/>
+        <v>5886.6793494324047</v>
+      </c>
+      <c r="F234" s="13">
+        <f t="shared" si="23"/>
+        <v>2986.7443491642243</v>
+      </c>
+      <c r="G234" s="6">
+        <f t="shared" si="24"/>
+        <v>2986.7443491642243</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B18:D18 F18">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$B$18&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:F46">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$B19&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:F75">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$B47&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:F81">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$B76&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:F99">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$B84&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:F83">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$B82&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100:F107">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$B100&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:F116">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$B108&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$B$18&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:F156">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$B117&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157:F195">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B157&lt;$B$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:F234">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B196&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
